--- a/data/hotels_by_city/Dallas/Dallas_shard_245.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_245.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="924">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Somsubhra S</t>
+  </si>
+  <si>
     <t>05/29/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>I visited this hotel for a business trip in Plano. Stayed here for a night. Room is average and decent. Breakfast is very average. Staff is really friendly, good and helpful. Having gone from India with no personal vehicle there it was a bit difficult to get hold of dinner in and around as the nearest restaurants are not that good. Rest everything was fine for a day trip. More</t>
   </si>
   <si>
+    <t>Stepperguy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r554406760-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>Stayed here one weekend because the rate was the lowest in the area and Just wanted to get out of town and relax after a stressful week.  Showed up and checked in without any real problem.  Being a Gold Elite member I asked for a late checkout and was told no problem.  The gentleman was very nice. Not the most convenient location. You have to drive a ways to a restaurant and entertainment.  Used the hot tub and pool.  We had it to ourselves but they are outside so the weather can play a part in your use of them.  They were ok.  Did not look like they were maintained as well as most of the properties we visit.  We were woken twice during the night from noise in the hallway.  Next morning we exercised and ate breakfast.  Fitness room is small but sufficient for most.  Breakfast was ok.  The person that was serving was very nice and good at their job.  On the way up to our room at about 9:30 I spoke to the front desk person and reminded her that we would be checking out.  She said ok and we retired to our room to take a shower and a nap.  But...at a little before eleven we were woken by knocking on a door.  It was a housekeeper and I figured it was an adjacent room since we had the do not disturb sign out.  We fell...Stayed here one weekend because the rate was the lowest in the area and Just wanted to get out of town and relax after a stressful week.  Showed up and checked in without any real problem.  Being a Gold Elite member I asked for a late checkout and was told no problem.  The gentleman was very nice. Not the most convenient location. You have to drive a ways to a restaurant and entertainment.  Used the hot tub and pool.  We had it to ourselves but they are outside so the weather can play a part in your use of them.  They were ok.  Did not look like they were maintained as well as most of the properties we visit.  We were woken twice during the night from noise in the hallway.  Next morning we exercised and ate breakfast.  Fitness room is small but sufficient for most.  Breakfast was ok.  The person that was serving was very nice and good at their job.  On the way up to our room at about 9:30 I spoke to the front desk person and reminded her that we would be checking out.  She said ok and we retired to our room to take a shower and a nap.  But...at a little before eleven we were woken by knocking on a door.  It was a housekeeper and I figured it was an adjacent room since we had the do not disturb sign out.  We fell back asleep and were woken again at about 11:30 by the same.  Still thinking it was another room we fell back to sleep.  Again at 12:30 it happened and this time I woke up enough to realize it was our door.  I went to the door and told the person through the door we had a late checkout.  In a few minutes the phone rang and I answered only to be questioned by a male voice when we were checking out.  I told him that i had been given approval upon checking in and again that morning.  I asked if the lady i spoke to was still there and he said he was the only one there.  Frustrated and tired we gathered our belongings and proceeded to leave.  The man at the desk was matter of fact and said there was no note in the computer of us checking out late.  There were no other guests there hardly and I still do not understand why they were so rude.  I have stayed at Marriott properties all across the country and this is not the way they treat their guests typically.  I would not recommend this hotel to anyone wanting to relax and enjoy their stay.  But, hopefully this was a fluke and will not happen to you.  I understand why they have some of the cheapest rates for a Marriott property in the area now.  There are too many other properties in the area closer to...More</t>
   </si>
   <si>
+    <t>BeakerTX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r542908352-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -246,6 +255,9 @@
     <t>Stayed for a couple of nights on a business trip.  Check in was ok.  They could have benefited from a second person at the desk during business hours.   The room was basic and mostly quiet.  The HVAC was a window unit and a bit loud.  Now fan speed control.  The TV was SAT based and would not lock into NBC or one of the other major networks....clear skies too.  Good location to plenty or restaurants, if you have a car.  An ok stay, but not my first choice.  More</t>
   </si>
   <si>
+    <t>Harold B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r532619109-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -273,6 +285,9 @@
     <t>The hotel was part of a small complex called The Cascades in The Colony very close to Plano. A number of nice restaurants nearby. Nice rooms; quiet. A good night's sleep. The hallmark as the staff. Extremely friendly. The morning lady at the desk assisted several times. Texas hospitality! Great stay; highly recommend.More</t>
   </si>
   <si>
+    <t>KYA1106</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r528813552-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -300,6 +315,9 @@
     <t>Basic hotel, nothing to write about no refrigerator in room which does bother me as I do tend to pick up water while coming back from work. I did find it strange that the hotel in Texas(hot humid) has no AC in the hallway. Front desk staff was pleasant and responded with kind interaction upon entering. Coffee was ready by 6 which helped, close to restaurants and if you like Burgers there's an In n' Out burger a mile away!More</t>
   </si>
   <si>
+    <t>hellogoodbye_7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r508763713-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -324,6 +342,9 @@
     <t>Nothing special here.   The hotel is in a strange location.   Right next to a Courtyard and a Res Inn but nowhere near any retail or restaurants.  I checked in after 11:00PM and all the lights were out in the lobby and front desk and no one was there.   Eventually someone showed up. No recognition was given as being a Rewards member. The room was very basic.  No frills. Seemed outdated and worn. I like a firm bed but this one was very hard and uncomfortable.   Housekeeping barged in at 8:30.  They did knock first but I just can't understand why housekeeping would even come by before a checkout.   Breakfast was gone when I went down at 9:30 so must have missed the window.   Nothing really bad about the stay but would opt for another place next time in the area.   More</t>
   </si>
   <si>
+    <t>mdb_Cincy_Ohio</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r484780765-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -351,6 +372,9 @@
     <t>Spent a week at this property on business travel.  The staff was very helpful with any questions/requests.  The hotel has tons of amenities for a Fairfield Inn &amp; Suites with access to much more nearby.  The rooms and the common areas were in excellent shape.  The location was perfect for all the surrounding communities.  It was also one of the best properties I've stayed at for recognizing Platinum status.  For craft beer fans, there was an excellent tap bar about a 10 minute walk from the hotel.  I definitely be back the next time I am in town.More</t>
   </si>
   <si>
+    <t>JohnWard2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r469269235-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -378,6 +402,9 @@
     <t>We stayed here for a nearby wedding. Found it was just across the parking lot. Accommodations were nice. Staff were friendly. Breakfast was outstanding. We got to see all the wedding party in the hotel as well.More</t>
   </si>
   <si>
+    <t>EduardoC1811</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r459325042-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -405,6 +432,9 @@
     <t>This hotel shares a large parking lot with two other Marriott properties.  It also looks like there will soon be a small restaurant/office space sharing that same lot perhaps offering some dining options.  Location is great for business or pleasure in Plano, The Colony, Frisco, McKinney, etc.  The hotel seems like it was recently renovated and even the carpet in the stairwell (yes, I took the stairs!) still smelled brand new.  Hotel rooms and bathrooms are clean and have the perfect amount of furniture.  The morning breakfast is ample with hot eggs and breakfast protein, cereal, waffles, oatmeal, etc.  About the only disappointing thing was the fitness equipment.  Seemed a bit outdated and a few of the tvs were not properly connected to the cardio equipment.  Overall, I'd still stay there again if I was in town for a few days.More</t>
   </si>
   <si>
+    <t>Susan M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r451325803-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -435,6 +465,9 @@
     <t>The Fairfield is very nice with nicely updated rooms.  It is close and easy to get to downtown and to UT.  I gave it a 4 because all the common areas (hallways, check in area) smelled like dirty baby diapers...not our room but everywhere else.  The staff were very nice and helpful.More</t>
   </si>
   <si>
+    <t>BaseballFan5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r450289496-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -459,6 +492,9 @@
     <t>Stayed for 2 nights while in the area visiting family.  The hotel seems brand new, so it either is, or it is going through remodeling.  The room was very clean, updated, and everything seemed to be brand new.  I had 2 great nights of sleep!!  And that is saying something - I usually have a difficult time getting comfortable in hotel beds. These beds were the perfect amount of firmness, but with some cushion and softness too.  We arrived late and the front desk staff could not have been friendlier.  We didn't mind walking to the Residence Inn for breakfast during the remodeling, but my only suggestion would be to keep the breakfast area open until 10am.  It closed at 9am and after 2 late nights with our family, it was tough to make it there in time.  We did the first morning, but not the 2nd.  Would definitely stay again when we return to Dallas!More</t>
   </si>
   <si>
+    <t>JAreg2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r444246344-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -480,6 +516,9 @@
     <t>Stayed here as suggested by a client for a small conference meeting in December.  The location and hotel is under renovations, which was told to us in advance.  We had to walk to The Residence Inn for breakfast. Close to many restaurants and stores, so that is a plus.  Overall, nothing to write home about, overall accommodating and comfortable, but nothing special.More</t>
   </si>
   <si>
+    <t>Field T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r443383804-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -504,6 +543,9 @@
     <t>Wife and I stayed during a house hunting trip. I travel every week and I'm very familiar with the brand. I used mobile check in and my keys were ready when I got there. The front desk was friendly, polity and professional. They also acknowledged my Platinum status, so many FI desks don't for some reason.  Our room was clean, everything worked and our room was quiet. It's in a great location with access to many places to eat. The area felt very safe and I'd come back again. More</t>
   </si>
   <si>
+    <t>Jennifer G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r439509292-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -531,6 +573,9 @@
     <t>Other than its great location, there's nothing else I liked about this hotel. The staff were not friendly, they served the same breakfast for the 2 days that I stayed, and worse, when I came for breakfast around 8:45, the serving platters for hot food were empty! No more sausages &amp; eggs! And there wasn't any staff around the kitchen. Someone had to go to the frontdesk and ask. The next day, the hot chocolate packets were nowhere to be found; I had to ask before they even brought them out. Overall, its just a place to sleep at and where you are just a few miles from practicalli everywhere you want to be.More</t>
   </si>
   <si>
+    <t>Nomadic_Thoughts</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r439342675-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -549,6 +594,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Erik L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r439039936-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -562,6 +610,9 @@
   </si>
   <si>
     <t>Recently spent three days here for a family visit and a nearby wedding.  Room was clean, spacious, well appointed.  It had a decent hot/cold breakfast buffet.  My only complaint is how thin the walls are.  We kept the fan blowing at night to sleep because it drowned out the elevator and hallway noise.</t>
+  </si>
+  <si>
+    <t>nowincolorado</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r435028786-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
@@ -609,6 +660,9 @@
 I WILL stay here again &amp; give...I really wanted to like this hotel more as I travel to the Dallas area a lot.First, this hotel is very hard to find.  The walls are very thin.  I could hear the people in an adjacent room talking.  They also had their TV on all night long until 4am.  Then from 4-5am they turned it on and off every 15 minutes.  It was finally shut off at 6am.Because of the thin walls, I could also hear their TV which meant I got very little sleep.  Their TV was not blaring, it was just ON.  All night long.  I should not have heard their TV in my room.To drown out their TV, I turned the bathroom light / fan on.  The bathroom fan was VERY loud, which normally would be a bad thing but in my case, it helped drown out some but not all of the TV noise.The bed also had the thinnest comforter I've ever seen at any hotel.The thermostat would not reach the desired temperature.  I noticed, if I set it to 75, it would only go to 73.  If I set it to 76, it would only go to 74.  Now to the good stuff!  The check in clerk was very nice!  The room was clean.  The furniture was nice.  The bathroom was clean.  The bedding and towels were also nice.  Breakfast was good.I WILL stay here again &amp; give it another try - with the hopes that I won't get a TV neighbor next time!More</t>
   </si>
   <si>
+    <t>Kathleen F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r432724717-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -622,6 +676,9 @@
   </si>
   <si>
     <t>My husband and I stayed at the Fairfield Inn last week. All the staff we interacted with were friendly and very helpful. I really appreciate it when I thank someone for their service and their sincere reply is "my pleasure." The breakfast was perfect for our needs, with oatmeal, a variety of fresh baked goods, fruit and bacon. The room was a little dated but very clean. The shower was large with great water temps and pressure. We will definitely stay here again and recommend the Fairfield Inn to others.</t>
+  </si>
+  <si>
+    <t>159davem</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r424396233-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
@@ -660,6 +717,9 @@
  There was a printer and a food and beverage...My girlfriend and I stayed here this weekend on a visit to Dallas. This hotel is one of three Marriott properties in a little cul de sac hotel complex. It appears that the staff rotate at all of them all the time, as we saw the same front desk people at two hotels during the weekend.(friends and family occupied both hotels this weekend. We were checked in promptly by a nice front desk clerk, and went up to our room. Although it was small, it had most of what we needed, queen bed that was comfy, desk, etc, but missing were a fridge and microwave. I really liked the large shower stall, and the hot water, pressure, etc, were great. We didn't watch tv at all but a flat screen was there. Wifi was good, we had several devices running smoothly. It was quiet, no problems with noise at all. Free hot breakfast buffet was just ok, but not the best. The coffee was fine, and so were the muffins, bagels, etc. but powdered eggs? Meh. Sausage patty was kind of bland, too. Oatmeal a bit thin for my tastes, but plenty of mix-ins helped. Orange juice was empty, I had to get cranberry instead. The buffet was not open at 6:30 am on the Sunday we checked out.Parking was plentiful, and free. Staff was courteous, especially the breakfast workers. There was a printer and a food and beverage pantry in the lobby, as well as a fireplace area. The hotel is close to a ton of restaurants and a shopping mall, although you need to drive to them, and it's, close but sort of tricky to navigate. There is a pool and hot tub here, but We didn't use them although there was a gathering at the pool We attended.Overall, I would recommend this hotel and would stay again. Not perfect, but more than enough for a short stay.More</t>
   </si>
   <si>
+    <t>emki33</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r412912964-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -687,6 +747,9 @@
     <t>Front desk staff at check-in were very friendly and helpful. Room was well-appointed and spacious (as was the bathroom). Loved the bath amenities - especially the Paul Mitchell Awapuhi shampoo. No tub, just a nice sliding-door shower. Breakfast was good; not amazing, but typical fare for this type of hotel. Stayed for a wedding and our rate was excellent. Very satisfied with this hotel!More</t>
   </si>
   <si>
+    <t>C N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r412703145-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -708,6 +771,9 @@
     <t>This place is beyond fantastic!  Each time I spoke to the front desk staff they were so helpful and pleasant-- I felt like I was staying at a $300/night hotel.  We had two rooms that connected (a queen/queen room and a king room) and the king room was quite a bit smaller than the queen/queen room.  The rooms were super clean, beds were comfy, and housekeeping came daily.  We had no problems whatsoever at this hotel.  The breakfast area is larger than most Fairfields and the food was hot and fresh.  Ask for a room facing the courtyard on the back side of the hotel if you're worried about hearing the highway.  I'd stay here again in a heartbeat.  Nice work, Fairfield!!More</t>
   </si>
   <si>
+    <t>Vaison</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r406779682-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -732,6 +798,9 @@
     <t>The hotel has good parking, a nice lobby, very helpful and friendly front desk staff.  The room is very basic, we had a double queen.  I should have looked at the room description more carefully, as the bathroom only had a shower.  We have a little one, so baths for us were needed.  The front desk clerk said they have baths in some rooms, it just needs to be requested.  She offered to look for a new room for us after the first night, but we declined.  I also didn't notice that the rooms do not come with a refrigerator.  I also inquired about this, and a fridge was delivered to my room the next day while we were out.  Very nice.  If I had a complaint, and its a small one which the hotel can't do much about, is the breakfast area.  There weren't a lot of tables and chairs for the area.  As such, there were a few school basketball teams staying in the hotel over the weekend.  They dominated the breakfast area each morning.  There was only one waffle maker, so that was tied up the whole time.  Once this group got done eating, they just hung out and took up table space.  We did not get free breakfast for 3 of the 5 days because of this group.  I didn't complain, and I'm not sure the hotel wants to get into the habit of asking guests...The hotel has good parking, a nice lobby, very helpful and friendly front desk staff.  The room is very basic, we had a double queen.  I should have looked at the room description more carefully, as the bathroom only had a shower.  We have a little one, so baths for us were needed.  The front desk clerk said they have baths in some rooms, it just needs to be requested.  She offered to look for a new room for us after the first night, but we declined.  I also didn't notice that the rooms do not come with a refrigerator.  I also inquired about this, and a fridge was delivered to my room the next day while we were out.  Very nice.  If I had a complaint, and its a small one which the hotel can't do much about, is the breakfast area.  There weren't a lot of tables and chairs for the area.  As such, there were a few school basketball teams staying in the hotel over the weekend.  They dominated the breakfast area each morning.  There was only one waffle maker, so that was tied up the whole time.  Once this group got done eating, they just hung out and took up table space.  We did not get free breakfast for 3 of the 5 days because of this group.  I didn't complain, and I'm not sure the hotel wants to get into the habit of asking guests to move once they are done (the group should have done this themselves).  But I think adding more tables would have been helpful.  The couch area in the breakfast room just takes up that space.  Otherwise, we enjoyed our time here and would stay again.More</t>
   </si>
   <si>
+    <t>MattH470</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r405776406-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -750,6 +819,9 @@
     <t>I stayed here at a recent location as it was recommended by our company travel agent.  I was highly impressed with the front-desk staff and their willingness to help and consistently friendly demeanor.  The room was smaller than I'm generally used to for a king size bed, but the rooms are clean, well-maintained, and fully functional.  It's location and price makes it a great stay for both families and business travelers.More</t>
   </si>
   <si>
+    <t>Earla M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r403449433-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -774,6 +846,9 @@
     <t>My first hotel was overbooked. This was supposed to be 10 away-as told to me by the sister property in Lewisville. It was 30 minutes away plus tolls.Lots of noise-by elevator- and the room's minimalist decor made the room feel old. I did like the bed, and the bathroom was roomy.There was no frig or microwave. That was disappointing. I cannot remember the last time I was in a room without a frig. I hope my company doesn't stay here again.More</t>
   </si>
   <si>
+    <t>Cypressman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r403435423-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -789,6 +864,9 @@
     <t>Overall good value hotel with very good, friendly service by everyone.  The hotel is within close proximity to numerous restaurants and shopping.  Additionally they are building a few restaurants just outside of the parking lot to include, I believe a Smash Burger which will make this location even more desirable for business travelers like myself who just want to relax after a day of work and not hit traffic once again for dinner.  It is a bit cumbersome to get to the location if your are East bound on the SRT; otherwise fairly good location.More</t>
   </si>
   <si>
+    <t>Stepheni C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r402957408-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -816,6 +894,9 @@
     <t>The rooms were spacious. It was clean and the A/C worked wonderfully in the Texas heat. The breakfast had good variety of cold and warm items. The down side was the poor wifi in the room. It was not good for working.More</t>
   </si>
   <si>
+    <t>Andy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r401831457-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -834,6 +915,9 @@
     <t>I have stayed here several times before and every other time has been nothing but pleasant.  Upon checking in, it seemed i was all set for another nice stay.  the front desk manager, Levonia, even remembered me!  Unfortunately the room next to mine had crazy people in it who were slamming the door shut about every 2 minutes from 1:30-4:30 a.m. and yelling at each other.  This went on for both nights of my stay!  When calling down to the front desk in the middle of the night, all the manager would tell me was "we are aware of it". Are you kidding me???  No empathy, no apology, nothing.  His response to me was equally as disappointing as the room next to me.  Would have been nice to have been offered to switch rooms perhaps.  On top of that, the telephone in my room did not work, and even after they attempted to repair the TV, the HD stations (TNT, TBS, USA) did not work.  Oh, and upon checking out, the night manager was very quick to tell me i could not take the bath salts as my welcoming gift (even though i was told the last time that i could).  I left tired, angry, and let down.  One other far less important point - it would be a nice touch to have a USB port somewhere in the room to charge items that use that.More</t>
   </si>
   <si>
+    <t>MauricioBabilonia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r395297632-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -861,6 +945,9 @@
     <t>I had a perfect stay at this hotel for a series of meetings in the Frisco area. It is conveniently located near a highway with many restaurants nearby. The staff is nice and the rooms are clean and comfortable. Checkin and checkout were both very fast. Breakfast was simple, but good. More</t>
   </si>
   <si>
+    <t>edmondite</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r385784695-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -882,6 +969,9 @@
     <t>Just a one night stay here but everything we expect from Marriott.  Nice and clean, friendly atmosphere and several options on their free breakfast buffet.  My favorite part was the patio just outside their breakfast room!More</t>
   </si>
   <si>
+    <t>Tish C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r380432978-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -906,6 +996,9 @@
     <t>So the visit was for a high school graduation. I had a room on the fourth floor.  The elevator was a little slow but other than that everything else was good the room was clean.  The staff was extremely friendly and accommodating from the front desk to the cleaning crew everyone had a smile on their face, pleasant and polite.  The hotel is located close to a lot of restaurants and some shopping.  It's very convenient hop on hop off the freeway.  I spent one night there was a free breakfast which was anything from fruit, cereal, eggs, boiled and scrambled, muffins, begals,and waffles.  I was very happy with my stay.  More</t>
   </si>
   <si>
+    <t>moman37</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r374218885-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -924,6 +1017,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>Helen6503</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r363883538-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -951,6 +1047,9 @@
     <t>We traveled to the Dallas Area for a wedding and stayed on the property of the wedding venue.  This property was pristine and quiet.  The service was the best ever.  The front desk was helpful, especially Danielle who helped us with a problem the day we checked out.  The breakfast was very good including hot items that were "hot".  Lots of eating places very close.  The largest furniture store in the US, Nebraska Furniture Mart, within a mile of hotel.  I would recommend this hotel to anyone; you can't go wrong with staying here.  The only negative thing I can say is that from Love field we had a bit of a problem finding it; however, it was late at night and dark.  I would not hesitate to recommend this to hotel to anyone; it is one of the best!More</t>
   </si>
   <si>
+    <t>2lovethebeach</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r360719159-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -996,12 +1095,18 @@
     <t>!!!!!!!!!!!!!!!Excellent property with exceptional customer service.  The property is close to numerous restaurants, shopping venues and Studio Grille.  Very clean and comfortable rooms!!!!!!!!!!!!!!!I don't to want to ramble on but I must be very clear on this...... One of the best properties in town!!More</t>
   </si>
   <si>
+    <t>BillK76311</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r352012995-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
     <t>352012995</t>
   </si>
   <si>
+    <t>Woodstag</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r344041745-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1029,6 +1134,9 @@
     <t>Stayed for 5 nights on business in Plano. They run a free transportation to and from Plano offices within a 5 mile radius so this was a good service offering. It is a good budget hotel which delivers value for money. Staff were great and helpful. Had a nice quiet room on 4th floor room 403. Good size room to sit with sofa and TV, working desk and bed area with TV. Missing a real evening bar and restaurant but there are plenty of places nearby to eat. Only gripe is the plastic cutlery and glasses at breakfast but there again it fits the budget model. More</t>
   </si>
   <si>
+    <t>Marty J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r340759601-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1053,6 +1161,9 @@
     <t>Great hotel and fabulous staff.  Clean, neat and quiet place.Want to make a special call out to Devenia and Donell (not sure I spelled their names right) who went out of their way to make my stay enjoyable from ensuring I had the right room, to suggesting a place for dinner, to arranging for a shuttle.  Only downside to the hotel...and it isn't an issue with the hotel...was the fact that there aren't restaurants within walking distance.  With traffic, it could take up to 30 minutes to get to a place.More</t>
   </si>
   <si>
+    <t>johnwesleyharden</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r326144888-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1080,6 +1191,9 @@
     <t>We arrived late at night and really tired. Our rooms were ready, and all paperwork was completed.  The lobby was very upscale, and extremely inviting. My room was immaculate,  I check with a blue light! The decor in my room was outstanding.  My impression of this hotel is unique,  I contend that management,  is totally involved, in all aspects, of this facility. Breakfast was above average, and the employees were extremely professional.  This is the BEST, of all the Fairfield Inns I've stayed at!More</t>
   </si>
   <si>
+    <t>Mardeb72</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r307345771-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1107,6 +1221,9 @@
     <t>First time at this location. We came in late, around 8 p.m. We were greeted on arrival. They had us checked in so quickly, also scored an upgrade to an executive king suite, the only cost was we had to give up our double queen room we had reserved, bummer...NOT! Beautiful room, so comfortable and very clean. We used the pool, not the hot tub though. Pool area was clean and well stocked with towels. It is outside but it's well lit and there weren't any bugs. Had a very good breakfast, did I mention how good the coffee is here?! So good! If I'm in the area again, I'll be staying here for sure!More</t>
   </si>
   <si>
+    <t>Dave11974</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r291383896-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1134,6 +1251,9 @@
     <t>Just off a crazy-busy Dallas area expressway, the Fairfield Inn and Suites in the Colony is a peaceful oasis.  Probably the most remarkable element of the complex is one of the nicest wedding chapels I've ever seen.  The Inn was clean and bright.  The breakfast bar features Texas-shaped waffles.  All-in-all, a fine place to stay.More</t>
   </si>
   <si>
+    <t>Shae 9</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r286342053-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1161,6 +1281,9 @@
     <t>The area that this hotel is located in is great. Awesome access to shopping, restaurants, and hot spots plus right off the interstate. Nice front desk staff. This hotel however disappointed me in many ways. First, there is no microwave or refrigerator in the rooms. I had to request for at least a refrigerator to be put in my room. The room was average of course. The bathroom only had a walk in shower which was odd to me. I felt that could be an inconvenience to someone who has younger children and with the hotel being booked that entire weekend, it could have created major problems if someone had to switch rooms for a tub. The hotel was pretty quiet considering that it was a lot of people and a lot going on in and around the property. Pool and hot tub was nice. Breakfast area was ok. Could have been better space for so many people. Could not accommodate everyone properly. Also the meat was very greasy. I thought it was horrible to have to come all the way downstairs just to heat up any food that we may needed to heat. We tried to avoid that at all possible. This hotel needs major updating with the rooms. I think for a wedding or event, it's ok but for family, it is not so friendly. Please update your rooms with a microwave and refrigerator! Overall, decent stay but...The area that this hotel is located in is great. Awesome access to shopping, restaurants, and hot spots plus right off the interstate. Nice front desk staff. This hotel however disappointed me in many ways. First, there is no microwave or refrigerator in the rooms. I had to request for at least a refrigerator to be put in my room. The room was average of course. The bathroom only had a walk in shower which was odd to me. I felt that could be an inconvenience to someone who has younger children and with the hotel being booked that entire weekend, it could have created major problems if someone had to switch rooms for a tub. The hotel was pretty quiet considering that it was a lot of people and a lot going on in and around the property. Pool and hot tub was nice. Breakfast area was ok. Could have been better space for so many people. Could not accommodate everyone properly. Also the meat was very greasy. I thought it was horrible to have to come all the way downstairs just to heat up any food that we may needed to heat. We tried to avoid that at all possible. This hotel needs major updating with the rooms. I think for a wedding or event, it's ok but for family, it is not so friendly. Please update your rooms with a microwave and refrigerator! Overall, decent stay but not sure if I would come back.More</t>
   </si>
   <si>
+    <t>BAB-BAB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r285923133-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1179,6 +1302,9 @@
     <t>We stayed at the Fairfield Inn for a family reunion. The staff were the very best to work with. The rooms are very nice and clean. Bathrooms are spacious...huge showers. Nice pool area. We were able to get a hospitality room near the pool. There are several rooms for meeting facilities etc. More</t>
   </si>
   <si>
+    <t>Rob H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r264577938-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1204,6 +1330,9 @@
   </si>
   <si>
     <t>Stayed here for 2 night in April.  The hotel was new and is part of a new Marriott complex in the Colony.  The only disappointing thing with this stay was that this new hotel was new and appointed like an older Fairfield Inn.  The room was a basic small room with only a desk, 4 drawers and a bathroom.  Some of the newer Fairfield Inns are updated with larger rooms and more space.  I have nothing to complain about as this hotel is what you expect when you check into a basic Fairfield Inn.  The breakfast was typical in every Fairfield way.  The room was clean and shower was fine.  I did find that the towel were much thicker than a normal Fairfield Inn.  Very basic and a good place to stay.More</t>
+  </si>
+  <si>
+    <t>teamsc10190</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r257577924-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
@@ -1239,6 +1368,9 @@
 I stopped by the front desk to complain about two mornings of ice cold showers. They'll look into it. I spent two more nights in this...As a Marriott Gold Elite member, I've stayed in a lot of Marriott properties and this was about the worst experience. I booked a room on an upper floor and received a ground floor room. When I inquired concerning my upper floor room the front desk advised they'd have to change me out the next day. The room reeked of smoke and there is no hot water for the shower the next morning.Arriving back at the hotel the next evening, I picked up the key for my 'new' upper floor room. I entered my 'new' room to find a poor gentleman in his underwear. I excused myself and went back to the front desk and inquired who was checked into the room they just gave me a key for. The desk informed me that I was checked into that room. OK, some the guy in his underwear is staying in my room on my credit card? Yes indeed. They quickly gave me the key to another room with no apology as though this is a routine occurrence at this property. The room key doesn't work so its back to the desk for another key. The new room is just fine until the morning brings another ice cold shower. This is a Marriott property?I stopped by the front desk to complain about two mornings of ice cold showers. They'll look into it. I spent two more nights in this property and two more mornings of ice cold showers. I asked to speak with the manager when checking out and he was sorry but not nearly as sorry as I was for having stayed here. This is a pathetic property and local management has no clue what customer service means.Do yourself a favor and stay anywhere else.More</t>
   </si>
   <si>
+    <t>Daniel L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r244609391-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1263,6 +1395,9 @@
     <t>We had a wedding to attend across from the Hotel and we arrived late Friday evening. We were greeted by a friendly smile behind the counter with an easy check-in. The room was comfortable and clean. My wife and I both commented to each other on Saturday morning that we could not hear noise between rooms and we both got a great night of sleep. Breakfast was fresh and good each morning and dining area was clean. Hats off to the staff. What a great stay at a great hotel.The young woman behind the counter at check out made sure that she told us that she appreciated our business, and that was refreshing to hear.More</t>
   </si>
   <si>
+    <t>fromme2u</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r244097230-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1284,6 +1419,9 @@
     <t>Stayed here while visiting family. Staff friendly, courteous and helpful. Room was clean, bed was comfortable, nice walk-in shower and Paul Mitchell bath products. Breakfast items were plentiful (we ate at 8:15 or so), and included fresh fruit, various juices, oatmeal with all the fixings, make your own waffles, scrambled eggs, sausage, hard boiled eggs, yogurt, assorted breads and pastries. Staff where you ate were attentive and kept the area very clean. The surrounding area is a little bare, only another Marriott property is adjacent, and another is currently being built. Even though the freeway is close-by, it is quiet in the hotel. There are a couple of fast-food restaurants near-by and a Walgreen's. The Stonebriar Center (large mall with MANY shops and restuarants surrounding the area) is only about a 5 minute drive away. Would definitely stay here again.More</t>
   </si>
   <si>
+    <t>pjtank18</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r243908755-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1299,6 +1437,9 @@
     <t>I recently made a huge booking error, which would of cost me big$$, and the staff were extremely helpful, friendly and professional.  I'm on the road 100 nights/year and don't find people who are this kind and who are so helpful!</t>
   </si>
   <si>
+    <t>Kathi S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r240898546-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1326,6 +1467,9 @@
     <t>Gathered here for a wedding weekend. Unfortunately, there were multiple parties going on, thankfully they all left on Sunday and we stayed until Monday. The noise level in the lobby was outrageous, kids from an ethnic party were screaming and running around the lobby while very intoxicated members of another wedding party took over public areas and seemed very upset when our group was utilizing public breakfast area space to have a nice quiet gathering. Hotel staff did nothing to put a stop to the noise or chaos. Otherwise, the rooms were fine, no frigs/microwaves in regular rooms. You have to ask to get a room with a tub to bathe little ones, most have huge walk in showers only. Rooms are standard and not outstanding. The mattresses were very comfortable, however. Breakfast nice and basic, not much for protein but the waffle maker shaped like Texas was fun. Close to shopping areas and some good restaurants.More</t>
   </si>
   <si>
+    <t>Alan G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r240043847-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1350,6 +1494,9 @@
     <t>I stayed here two nights on a business trip.  The hotel is very nice and the rooms are clean and comfortable.  Breakfast is good, and the breakfast area is nice.  The staff is friendly.  Overall, I would stay at this hotel again.  Now here is the bad.  They put us in an adjoining room, and our door was open, so that was a little disconcerting.  We closed and locked the door.  On my second the hotel put a wedding party in the room right next to ours, with the adjoining doors.  When the whole party decided to come to that room at 11 it was no fun.  They were loud, and obnoxious.  I could have called the front desk, but I knew it would end soon as they were too drunk to make it much longer.  I did not want to pack everything up at midnight to move to another room.  I was frustrated that the hotel did not have the insight to think, hmmm.  Maybe a business traveler wouldn't want a wedding party right next to him with an adjoining door.More</t>
   </si>
   <si>
+    <t>COcrazyhouseof5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r232923660-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1377,6 +1524,9 @@
     <t>We stayed here over the weekend as we were in town for a softball tournament. Rooms were clean and updated, great water pressure in the shower, and friendly staff.They allowed us to use the breakfast area and kitchen for our team meals and even stored our extra food for us. Our team of 13 year olds were able to have study hall in the lounge area, and got a kick out of the waffles shaped liked the state of Texas.Thank you for your hospitality....if we are back in the DFW area, I would ls definitely stay here again!!More</t>
   </si>
   <si>
+    <t>Valerie Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r221567306-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1404,6 +1554,9 @@
     <t>This hotel is relatively new.  Everything was very clean and it gives a great impression immediately as you walk through the doors.  The free breakfast is great.  Good selection of things to choose from.  The only negative I have is the coffee.  It's a little too strong and bitter for my taste.  I don't know what kind it is but it should be smoother and better tasting.More</t>
   </si>
   <si>
+    <t>dandkc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r218566588-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1431,6 +1584,9 @@
     <t>No sincere greeting when we arrived. We were treated as if we were interrupting the employee.Newer Hotel but ran down. High noise level with thin walls. Bedding was very thin, pillows and sheets were mis-matched and spottted with stains. Carpet not clean and air conditioner/heater had large broken and missing pieces. The odor in first room was that of something burning, while the heat was on. We moved to another room and again the same ill odor. No refrigerator or microwave in either room as in other Marriott hotels. Our stay was for seven nights. After the first two nights of excessive noise we checked around to see about getting to another hotel. Unfortunately all were booked. On checkout the desk employee was in the breakfast area and just reached for the key and left us with no exit greeting. The only friendly face and exchange we had was with the maintenance man who was busy through our stay.More</t>
   </si>
   <si>
+    <t>Armymedic15</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r215019725-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1453,6 +1609,9 @@
   </si>
   <si>
     <t>This Fairfield is great it's fairly new was very clean the front desk staff was very friendly and accommodating to any needs. My wife two kids and I was upgraded to a one bedroom suite which was nice to have the extra space because the rooms are a lil Small. The free breakfast had a good selection and was a nice treat to have in the morning. most definitely would recommend this hotel and I would stay there again.More</t>
+  </si>
+  <si>
+    <t>Travelholicphile</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r213150820-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
@@ -1486,6 +1645,9 @@
 I didn't eat...I was a member of the wedding party and stayed at this hotel purely for location.  I had an Extended King on the 4th floor which had a microwave and tiny fridge.  I was pretty disappointed there was no bathtub but the shower was REALLY nice and large, you could fit about 4 people in it (no we did not try).  The idiot staying in the next room brought his (non-service) dog and the hotel has a no pets policy unless it's a service animal.  The thing was yowling while the idiot was attending a wedding/reception, and I had to wake up at 6:30am the following day for a 16 hour busy wedding day.  I went down and spoke with the front desk and explained what was going on.  They did offer to move me rooms but noted it would be downgraded.  This was 9pm at night, I was ready to crash and had already laid out all my things for the next day.  I declined but made it clear that I did expect some sort of comp.  He said he'd leave a note for the manager in the morning.  I'd like to emphasize he was polite, understanding, and apologetic.  In the end, they did comp the room appropriately.  I cannot say enough nice things about the manager (who was the director of sales - I cannot recall her name unfortunately) who was very apologetic and understanding.  I didn't eat any food but had coffee and it was pretty darn good - this coming from a person who hates coffee.  Pros:Location (for wedding)Comfortable bedGREAT coffee!Cons:No bathtubHOT TIP:  If you have a car, make the 20 minute jaunt to Fat Cow in Lewisville for the best BBQ you will ever have in your life.More</t>
   </si>
   <si>
+    <t>Thomas P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r209405383-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1513,6 +1675,9 @@
     <t>I stay at this hotel more than a dozen times a year.   It is located right off of 121 in The Colony (North West Plano).  less than 10 minutes from Legacy Town Center and 5 minutes to Stone Briar mall (depending on light).  The rooms are all new and the rates are great compared with the hotels around it.  The rooms are always very clean and the facility is well laid out.  The real highlight of this property is the staff.  A lot of the staff is very young but EXTREMELY helpful, polite, and focused on providing a good stay.  I could list several examples of them going above and beyond to make sure my stay was perfect.   I would say everyone at the front desk is professional but two employees in particular stand out.  When I see Miriam or Ray behind the desk I KNOW I am going to have a great stay.  They are amazingly helpful and go out of their way to fix any problem or issue.  The ONLY negative I have for this property is you better book at least a week in advance as I have never seen a hotel stay as booked as this one.  It is always full.More</t>
   </si>
   <si>
+    <t>Jigar P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r208060151-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1537,6 +1702,9 @@
     <t>Very nice Hotel. Nice breakfast in morning and good room cleaning.. Most Important thing is Staff Behavior very good.. Location is not that much good. but some restaurants are near by.. Paid Market Place available in hotel where you can get some foods any time...Thank You..More</t>
   </si>
   <si>
+    <t>Jessie G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r200821863-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1561,6 +1729,9 @@
     <t>I stayed here for 5 days and it was a great spot for business travel being right outside of Plano, TX.  Rooms were very clean and simple.  They had great breakfast including self serve waffles, scrambled eggs, sausage, cereals etc.  Rooms were quiet and ample parking.  Nearby restaurants (not walking distance) just down the back roads.  Take the back roads to get there otherwise you would be stuck jumping on the freeway to get back and forth and traffic can be a pain.More</t>
   </si>
   <si>
+    <t>Nancy R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r200160915-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1588,6 +1759,9 @@
     <t>I needed a quick nights stay and this was very reasonable and clean.  The location is not the best, but there are restaurants close by.  I was very comfortable in the room and had a good nights rest.  Thank you.More</t>
   </si>
   <si>
+    <t>SurprisedTexan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r199098481-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1612,6 +1786,9 @@
     <t>Place is nice and clean.  Staff is friendly.  As one person mentioned, the rooms are pretty small.  Our room only had a shower and no bathtub.  I checked with the front desk but they said only the wheelchair accessible rooms had tubs (?).  Had it not been 11 PM at night I would have tried to work out a deal with the Res Inn across the parking lot.  We will not return because no tub is a deal breaker but otherwise, seems like a nice place.  I think it should be made more clear on the site or reservation about this -- this is my first encounter with this at a Marriott.More</t>
   </si>
   <si>
+    <t>CometoTexasYall</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r198224460-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1636,6 +1813,9 @@
     <t>We stayed in a room with a kingsize bed. This was one of the smallest hotel rooms that we have ever had. We missed having a microwave oven and a small refrigerator. This room was the bare basics.  Multiply the size of the bathroom ( which was the best part of the room)  x3 and you would about have the size of the room.  We had the unfortunate experience of our room being close to the elevator and the noisy guests kept us up well into the early morning hours.  This particular room also had a screen loose on the window that rattled off and on throughout the night and the window view was a wall. If you don't mind a small room with just the basics and ask for a room away from the elevator, you may have a pleasant experience.  Everything seemed nice and clean. More</t>
   </si>
   <si>
+    <t>Travelin_Dyxie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r194540130-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1663,6 +1843,9 @@
     <t>I almost always stay in a Fairfield Inn when I travel.  I rarely ever have anything negative to say about them.  This was my second stay in this particular Fairfield Inn.  I was greeted and taken care of right away.  I was asked if I had a floor preference (which I didn't), was given my key and off I went!  The room was a standard king.  It was on the small size, but I was only there to sleep and shower.  The bed was so comfortable.  I would have slept like a baby . . . EXCEPT . . . there was a wedding going on in the attached events center.  At some point during the night, (after midnight) I could hear quite a few people running around in the parking lot laughing and just being LOUD.  I was on the fourth floor, so I can only imagine how loud the people on the first floor had it.  Then, several more times during the late night/early morning, clearly intoxicated people were walking up and down the hall.  This is not the hotel's fault at all.  I do believe that they did the best that they could considering.  The hooting and hollering that was happening outside only happened for a few minutes and then I assume, enough complaints came flooding in that someone spoke with them and had them SHUT UP.  Sheesh.  I understand that a wedding is a happy event...I almost always stay in a Fairfield Inn when I travel.  I rarely ever have anything negative to say about them.  This was my second stay in this particular Fairfield Inn.  I was greeted and taken care of right away.  I was asked if I had a floor preference (which I didn't), was given my key and off I went!  The room was a standard king.  It was on the small size, but I was only there to sleep and shower.  The bed was so comfortable.  I would have slept like a baby . . . EXCEPT . . . there was a wedding going on in the attached events center.  At some point during the night, (after midnight) I could hear quite a few people running around in the parking lot laughing and just being LOUD.  I was on the fourth floor, so I can only imagine how loud the people on the first floor had it.  Then, several more times during the late night/early morning, clearly intoxicated people were walking up and down the hall.  This is not the hotel's fault at all.  I do believe that they did the best that they could considering.  The hooting and hollering that was happening outside only happened for a few minutes and then I assume, enough complaints came flooding in that someone spoke with them and had them SHUT UP.  Sheesh.  I understand that a wedding is a happy event and there is cause for celebration, but, there are other people staying in the hotel that have nothing to do with your happy day.  Have some consideration.  Besides the noise, it was a lovely stay.More</t>
   </si>
   <si>
+    <t>rharris60</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r187304220-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1690,6 +1873,9 @@
     <t>This past weekend the weather in Dallas was pretty bad and we had a wedding to attend next door at Ana Villa so we spent Fri. and Sat. night at the Fairfield Inn.  The Inn looks very new and clean and presents a welcoming site when you enter.  The counter people were smiling and very helpful and put us into a king suite. The suite had a small frig, sitting area with desk, couch, chair and tv. The bedroom had a king-size bed (extremely comfortable) and a tv. The room looked and smelled clean. The breakfast was a full breakfast with eggs, sausage, bread/bagels, fruit, juices, milk, and all the extras. My wife and I really had a relaxed visit here and the support staff couldn't be more friendly and helpful. I would definitely stay here again if the circumstances should warrant it.More</t>
   </si>
   <si>
+    <t>BenH989</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r183674178-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1717,6 +1903,9 @@
     <t>I attended a wedding next door to this hotel and couldn't be happier that all I had to do was stumble over a parking lot to lay my head for the night. This is a new hotel and is still in great shape. I stayed in a room with a king size bed and boy the room was just big enough for the bed and some walking around room. It really didn't matter since I was only there to sleep. The bed was nice and I would describe it as a firm soft mattress. The bathroom was nice and clean as well. There wasn't a bath tub, it was a stand up shower stall which had plenty of room to enjoy the shower it. I couldn't tell you how the breakfast was because when we walked down the breakfast area was packed with people.More</t>
   </si>
   <si>
+    <t>Thomasfrank</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r183219160-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1741,6 +1930,9 @@
     <t>Stayed for business here and I was very impressed with the cleanliness of the hotel and friendliness of the staff.  Rooms are modern and spacious and well thought out.  Little things like lamps with plugs so you can charge your phone make a big difference to me.  Plenty of restaurants near buy and a tremendous value for that area.  Nice free breakfast and very comfortable.   Only knock I have is the walls seemed a little thin, could hear everything in the adjacent rooms but I'd stay hear again without hesitation.More</t>
   </si>
   <si>
+    <t>George Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r181887274-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1762,6 +1954,9 @@
     <t>This is one of the nicer Fairfields you will find. Room rates are reasonable. The neighborhood is conducive to walks and runs. The pool is OK. The location is great for business in Plano and its restaurants. The free breakfast is fairly extensive too. More</t>
   </si>
   <si>
+    <t>texasdetroit</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r177309621-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1789,6 +1984,9 @@
     <t>one night stay on Sept. 7th.   room was clean and fresh.  the outdoor pool was clean as well. Breakfast was hot and plenty of everything.  Our only complaint was that we could hear people talking and a child in the room above us. It really isnt the hotel's fault that people are banging around and a child squealing at midnight, but it just seemed that it should not be that easy for sound to transfer between ceiling and floor of rooms.  we never heard a sound through the walls of rooms joining us. I dont think we have heard that much noise from rooms above us  in all our hotel stays.  we switched the room air to manual mode to make the fan stay on full time and that helped.   everything else was perfectly fine about this hotel.  Quite neighbors would make for a great stay. The area is really fun.More</t>
   </si>
   <si>
+    <t>davega99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r175539622-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1816,6 +2014,9 @@
     <t>Spent 12 days on a business trip and the breakfast was always hot and plentiful, room had everything I needed and internet service was quite good. Never a fan of an air conditioner blasting away all nite beside my bed but this one was relatively quiet. Free laundry service was a bonus as well, only had to pay for machine time at $1 per use. Liked having the pool to myself most of the time and did not notice any recycling specifics. Lots of parking, close to highway but not too close, never heard the traffic from my room. Nice big screen TV's, excellent shower in bathroom. Not a fan of really soft pillows but the bed was excellent.More</t>
   </si>
   <si>
+    <t>JandPKeys</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r170516464-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1843,6 +2044,9 @@
     <t>I stayed here for two days during a business trip. Very convenient location and the staff was great! We were given a room with two double beds, I asked to be changed to a King bed and had no problems getting it changed. I forgot some items and the staff was able to provide it with no charge. The breakfast had a lot of different items to choose from and was also great. I would stay here again!More</t>
   </si>
   <si>
+    <t>Marc36401</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r167228276-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1868,6 +2072,9 @@
   </si>
   <si>
     <t>We had two rooms for my wife and me and for college friends reuniting. The hotel was bright, clean and comfortable. The staff was friendly and helpful, especially Miriam who assisted with my second reservation. The breakfast variety was good. Another reviewer suggested a second waffle iron, which would be helpful if space was available. However, the counter space in the breakfast space seems to be at nearly full capacity. The location was excellent for our gathering which took place primarily on the north side of Dallas. I would not hesitate to book at this hotel again, but would rather look forward to another stay at the Fairfield Inn &amp; Suites at The Colony.More</t>
+  </si>
+  <si>
+    <t>Cab4Gam</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r162373917-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
@@ -1906,6 +2113,9 @@
 I agree with the other reviewer as to the towels. They were super thin and almost useless! I mean See-through thin! For a new hotel I would have expected nice fluffy towels. Shower was terrific! Bathroom fan was rather loud and you had...Chose this hotel for its proximity to an event being held at The Colony High School. Hotel was about 2 miles away and took about 5 minutes to get to the school from the Fairfield.Initial impression was very good with a very helpful staff. Nice ladies! I requested a change from my reserved 2 queen room to a King Suite and they seemed happy to oblige.Our room on the second floor, 216, had a view of the Porte Cocher. Literally nothing! Nevermind. Wasn't there for the view (and if we could have seen anything if would be the Freeway in the distance!)The King Suite room was very spacious, plenty of pillows. Two televisions. One in the bedroom area and one in the awkwardly shaped living area where the sofa bed was. We used the sofa bed, and as far as comfort goes....it was a sofa bed! Nuff' said. The king bed was very comfy with nice  linens and fluffy downy.(There is a stain on the wall the window is on--by the bed...a very large splatter of red juice maybe? Should be looked into) other than that, the room was very clean and nice.I agree with the other reviewer as to the towels. They were super thin and almost useless! I mean See-through thin! For a new hotel I would have expected nice fluffy towels. Shower was terrific! Bathroom fan was rather loud and you had no choice about turning it off. Also the provided hair dryer was chintzy. Would only dry for a moment before getting too hot and shutting down.Fridge was nice to have although it was full of water in tray which had to be emptied.Breakfast was plentiful. First morning offered scrambled eggs and sausage for hot option, second  morning offered sausage/gravy  biscuits. They also have 1 (Texas shaped) waffle maker which didn't seem to be enough! There was quite a backup of waffle wanters during both breakfasts I was there. Cereals, yogurts, fresh fruit and juice were also available with a good selection of Bread and bagels for toasting.I would definitely recommend this hotel but would like to see a littleMore attention to details...towels, clean fridge and quality hair dryers. Another waffle maker or two.  Little touches would make a huge difference. Seems they are trying to cut corners and it shows.As for that front desk staff...they are a huge asset and do the Fairfield proud with smiling faces and a friendly greeting everytime we walked in the door.More</t>
   </si>
   <si>
+    <t>dil345</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r160822400-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1933,6 +2143,9 @@
     <t>Booked this hotel last minute and thought the rate was pretty high.  Breakfast was good and towels were a little thin I thought. The front desk staff was efficient and beds were comfortable.  A/C worked well.More</t>
   </si>
   <si>
+    <t>SmoochMe</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r160710421-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1960,6 +2173,9 @@
     <t>We stayed here recently after a fun trip to Six Flags. We wanted to stay in an area with great shopping (especially close to Ikea). This hotel was perfect! I prefer newer hotels and found this one very neat &amp; clean. We enjoyed the breakfast and there was plenty of seating for everyone. Very polite staff was so helpful. When I sent my son down to the lobby for an extra sample of shampoo they sent several back up with him and included more lotion also! Absolutely wonderful - will stay here again in a heartbeat.More</t>
   </si>
   <si>
+    <t>okatty</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r159803429-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1982,6 +2198,9 @@
   </si>
   <si>
     <t>This hotel marketed itself as a destination for concerts at Pizza Hut park with shuttle service...even had a "concert rate".  They unfortunately failed to figure out how to shuttle people to and from the venue which resulted in a 2 hour wait both before and after the concert.   And they seemed totally clueless how to fixt the problem.  Literally had people screaming at them in the lobby, etc.   What about the hotel - its great if you love really hard uncomforatable beds and if you like bathroom fans that cannot be turned off unless the light is off and that are so loud they blow you out of the room.  Oh, and the room thermostat failed to function properly.  We were literally there for abotu 18 hours and it was pure terror the whole time.More</t>
+  </si>
+  <si>
+    <t>godsbooboo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r146410499-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
@@ -2015,6 +2234,9 @@
 The employees at this particular Fairfield Inn were incredible.  They helped add to our holiday trip in a positive way.  I hope this hotel is able to continue the fantastic service, friendliness and quality of travelers staying there.  We will be...My husband and I travel a lot and have stayed in many different hotels and this one stands out over most of the places we've stayed in many different states.  The staff was very accommodating to our requests.  Our second day there the woman at the front desk upgraded us to a larger room at the same rate we were paying for the smaller room.  This occurred when we requested a microwave for our room and the hotel did not have any extras to bring to us.  So, the woman apologized and said we could move to a larger room which had both a mini-fridge and a microwave.  That was a first for us!  This same employee also let us extend our check out time due to our later flight.We had chosen this hotel because it is located close to family and for the good rate for the room.  The hotel is still relatively new and is very clean and nicely decorated.  More importantly, though, both rooms where we stayed were very comfortable (beds, bedding, heating/cooling, bathroom facilities) and quiet.  We had no problems with Internet access during our stay and had ample channels to watch holiday sports.  The employees at this particular Fairfield Inn were incredible.  They helped add to our holiday trip in a positive way.  I hope this hotel is able to continue the fantastic service, friendliness and quality of travelers staying there.  We will be back.More</t>
   </si>
   <si>
+    <t>tswitz65</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r145113094-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -2039,6 +2261,9 @@
     <t>Really enjoyed my 4 night/3 day stay at the Fairfield Inn &amp; Suites at The Colony while on a business trip.  I took pictures while on my stay but am unable to post them to my review for some reason.  But rest assured the professional pictures already posted on here are accurate.  My room - as well as the rest of the facility - were exactly as depicted.My room was very clean.  Updated decor and everything felt very new.  The bathroom was very nice and roomy with a walk-in shower with sliding glass doors - which I found different and enjoyable.  Plenty of hot water.  The staff was very polite and the continental breakfast was typical fare for a hotel but very good and kept very clean and stocked by the staff.  Plenty of seating in the dining area as well.  The workout room just had a couple of machines and free weights.  So beware workout warriors, you may be a little disappointed.  The location is close to restaurant's and stores.  But really, what location isn't in Dallas. Restaurants and plaza's are everywhere!  All-in-all I had a great stay and will be back if ever in town again :)More</t>
   </si>
   <si>
+    <t>Fostertraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r141375176-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -2063,6 +2288,9 @@
     <t>I had to travel to The Colony for a funeral. I booked a 2-night stay (Thursday-Saturday) online the day before traveling. Check-in was a breeze. I was greeted by a friendly clerk who was adept at handling his job and provided useful info about the area and the hotel. The room was clean and I was immensely pleased with the height of the shower head-no stooping! A quiet room and a comfortable matress made for a great night's rest. Continental breakfast had more than just make-your-own-waffles for hot choices and the fruit was fresh. Outside seating to enjoy the morning was another added plus. Morning staff was also helpful with directions and recommendations. The hotel is very well-run. It is close to Stonebriar Mall which I have heard has excellent shopping. I plan to visit again to check that out. The only drawn-back for me was that this property did not sell Coca Cola products, but the desk clerk gave me directions to the nearest drive-through and convenience store. I would definitely stay here again. Next time, I will just bring my own Diet Coke.More</t>
   </si>
   <si>
+    <t>jacu23</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r141099213-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -2081,6 +2309,9 @@
     <t>We arrived around 9:00 PM on a Friday night, were greeted professionally, efficiently and check in was very fast.  The room was very clean and we loved the large stall shower.  The breakfast was very well done for a continental breakfast and good.  The morning staff was very friendly.We would definitely stay here again if we are in the area.More</t>
   </si>
   <si>
+    <t>andrew p</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r136151934-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -2108,6 +2339,9 @@
     <t>we stayed 4 nights here for our friends sons wedding and there were around 30 of us there most from toronto brampton and manitoba ,the staff very friendly and they had barbeque ,for charity for kids of america ,and the food was great and entertainment we enjoyed their pool as the weather was hot ,nice hotel clean and good breakfast that was included in billMore</t>
   </si>
   <si>
+    <t>POO-Fighters</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r135375318-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -2135,6 +2369,9 @@
     <t>Sometimes in life it's the random of kindness that keep my going.  Probably because in this "dog eat dog" world they are....well; random.  Marriott should be thankful to have an employee that just "gets it" and then acts on it.  He realized that my day was not going well, and even though it meant more work for him, he put me in a different room as I requested.  The     nice surprise was that the room was not only bigger, but a better view.  This may seem small to some, but I think those same qualities are prevelant throughout the staff at this location.  From the cleaning staff to the lady that greeted me yesterday...."thumbs up" guys.  You have been a small ray of sunlight for me the last couple of days.More</t>
   </si>
   <si>
+    <t>houstongal43</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r134393486-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -2153,6 +2390,9 @@
     <t>June 2012</t>
   </si>
   <si>
+    <t>ucla123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r132677664-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -2177,6 +2417,9 @@
     <t>This was a nice hotel, when I got to my room I was impressed. It had fun colors, clean, nice, updated fixtures in the bathroom and nice flatscreen TV. I was impressed. They provided free breakfast too! Overall great, zero issues, easy check in and out, would stay here again!More</t>
   </si>
   <si>
+    <t>PrissyKim</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r132129633-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -2195,6 +2438,9 @@
     <t>Was in town on business, the hotel is clean and when entering the room, it felt fresh with the bright colors. The room itself was also very clean and comfortable. However, I was not impressed with the front desk staff who generally seemed, by the look on their face, like they were dealing with a crisis or just not happy to be there. I was greeted with a look, no acknowledgement, and I stated I needed to check in. No thank you, stating of room number, nothing...just handed room key and that was it. I asked if there was somewhere close by to pick up something for dinner and was told only on Legacy. I was in a rental car and did not know the area. If I had been told to go down another few exits, I would have found a variety of restuarants. Instead I drove an hour in circles looking for something a settling on Wendy's. The staff redemption: the one person was the female attendant at the breakfast area who was pleasant and attentive. I'm rating this average because of the room, certainly not due to the front desk staff.More</t>
   </si>
   <si>
+    <t>Peter S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r127863172-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -2222,6 +2468,9 @@
     <t>I believe this Fairfield Inn was built in about 2009.  It feels new as you check-in.  The hallways are beautiful with striking modern carpet.  However, the first room we we given smelled very slightly like dirty socks and made my nose stuffy.  The AC in this hotel is kept too cool which could have contributed.  We were agreeably given another room that was better, but my wife and I noticed that it felt very humid each time we returned to our room.  We wonder if the bathroom fan actually exhausts to the outside or just recirculates the air in the bathroom.  The staff is very pleasant.More</t>
   </si>
   <si>
+    <t>footlooseOmaha</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r126998715-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -2243,6 +2492,9 @@
     <t>Just got back from a two week vacation in which we stayed in four different hotels in Arkansas, Mississippi and Texas.  All the others were great, but this one was a distant and disadvantaged cousin to the other places we stayed.  It was clean and new, but that is about the best that can be said for it.  They are probably better for a business overnight than a family stay.  No microwave or frig in the standard two-queen room.  While these amenities might be found in the suites. the other hotels in which we stayed had them in two-queen rooms.  I indicated that there would be three adults in the room but only there was only one packet of coffee for the in-room coffee pot.  Towels were very European (small and skimpy).  The mattress was hard and the sheets were so skimpy that they only covered half of a standard depth mattress.  Maid service was terrible.....beds were made but coffee packets, shampoo, etc were not replaced and the room was not really cleaned in any other discernable way (used coffee cups left on bedside stand, cellophane wrapper left on floor.   Breakfast was OK though still inferior to the other hotels we stayed in (Homewood suites, Hampton Inn and Holiday Inn Express).  Furthermore, breakfast service ended at 9 a.m. (forget about sleeping in a bit on vacation) despite the fact that the guest services booklet said breakfast service was from 6:30...Just got back from a two week vacation in which we stayed in four different hotels in Arkansas, Mississippi and Texas.  All the others were great, but this one was a distant and disadvantaged cousin to the other places we stayed.  It was clean and new, but that is about the best that can be said for it.  They are probably better for a business overnight than a family stay.  No microwave or frig in the standard two-queen room.  While these amenities might be found in the suites. the other hotels in which we stayed had them in two-queen rooms.  I indicated that there would be three adults in the room but only there was only one packet of coffee for the in-room coffee pot.  Towels were very European (small and skimpy).  The mattress was hard and the sheets were so skimpy that they only covered half of a standard depth mattress.  Maid service was terrible.....beds were made but coffee packets, shampoo, etc were not replaced and the room was not really cleaned in any other discernable way (used coffee cups left on bedside stand, cellophane wrapper left on floor.   Breakfast was OK though still inferior to the other hotels we stayed in (Homewood suites, Hampton Inn and Holiday Inn Express).  Furthermore, breakfast service ended at 9 a.m. (forget about sleeping in a bit on vacation) despite the fact that the guest services booklet said breakfast service was from 6:30 to 9:30.  The best I can say about it is that it seemed safe.More</t>
   </si>
   <si>
+    <t>goict</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r126270274-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -2267,6 +2519,9 @@
     <t>Found this hotel on line for a two night stay to see family and shop.  The hotel is great.  It is quite new, the room was clean and spacious enough for 3 adults.   We enjoyed a nice (nicer than most) breakfast.  The hotel was quiet and there is a nice patio just off the lobby.   The only thing I didn't have was a full-length mirror in the room.  We will definitely stay here again.More</t>
   </si>
   <si>
+    <t>smcroft</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r124883850-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -2294,6 +2549,9 @@
     <t>Friendly staff, good breakfast, clean comfortable room with free internet. I would stay here again.More</t>
   </si>
   <si>
+    <t>sr6266</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r122672072-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -2321,6 +2579,9 @@
     <t>One of the nicest and cleanest properties I have stayed in. Was there in late December with family for a wedding at the adjacent Cascades event center. Roomy and spacious with a good breakfast and an absolute bargain($70/night plus taxes)!!More</t>
   </si>
   <si>
+    <t>Scubarobert</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r119523793-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -2336,6 +2597,9 @@
     <t>A great front end team! New rooms, close to Plano, and easy to get to.</t>
   </si>
   <si>
+    <t>Chrary</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r119352745-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -2351,6 +2615,9 @@
     <t>New hotel and great location off HW 121 north of Dallas.</t>
   </si>
   <si>
+    <t>MIAFlyGuy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r119196119-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -2372,6 +2639,9 @@
     <t>This hotel was recently constructed in the last 2-3 years, and its look and feel is modern (considering the room rates). The free breakfast is top notch when compared to other Fairfield Inns or Hampton Inns (thanks for the hard boiled eggs &amp; great extensive cereal selection). You really can have a healthy breakfast and leave "filled". I am sad to see the week-night bar amenity discontinued - it made this place different than other Fairfields. Two notes for management, #1 the bathroom fans are loud and annoying (no ability to turn them off if you are brushing your teeth). #2 the hotel is just starting to show wear-and-tear, I hope you keep this place looking like the gem that it is.More</t>
   </si>
   <si>
+    <t>bturn205</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r117219589-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -2390,6 +2660,9 @@
     <t>July 2011</t>
   </si>
   <si>
+    <t>robin02907</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r114812025-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -2408,6 +2681,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>lucycan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r108631653-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -2435,6 +2711,9 @@
     <t>I stayed here 3 nights.  I really enjoyed my stay.  I stay about 100 nights per year in hotels.PROS:Nearly new hotelComfortable bedsHVAC controls that allow for fan to be ON all the time (white noise)Bar on certain nights of the weekFriendly staffQuiet rooms even near elevatorRooms on highway side are pretty quiet as wellCONS:Not really near anything.  About 2 miles from Plano Town Center.Very small King room.More</t>
   </si>
   <si>
+    <t>regionalc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r81308926-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -2453,6 +2732,9 @@
     <t>September 2010</t>
   </si>
   <si>
+    <t>Mhawkins1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r77582027-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -2471,6 +2753,9 @@
     <t>August 2010</t>
   </si>
   <si>
+    <t>rugger2141</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r59956382-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -2492,6 +2777,9 @@
     <t>With its new construction, relaxing hot tub, HDTV service, easy parking, and close proximity to the Plano/Frisco retail shopping hub around IKEA, this hotel was a perfect short stay getaway.  The free breakfast was great too, with a Belgian waffle maker and microwaveable breakfast sandwiches, it allowed my party to be ready to start the day right out of the hotel.  The specific purpose of our trip was for a rugby game on Sunday, after we had played a game previously in Oklahoma City the day before.  So we took advantage of the hot tub, free WiFi, exercise facilities, and breakfast and all of us came away from the hotel impressed.More</t>
   </si>
   <si>
+    <t>Jake007Alberta</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r59694945-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -2507,6 +2795,9 @@
     <t>Recently stayed at the Fairfield Inn while in Metroplex on business.  I originally checked into the Towne Place Suites in Plano but after one night there, I moved to this hotel in The Colony...just west of Plano.  The hotel was very clean, staff were friendly, and offers free internet access as well as free parking.  The freeway is close but I couldn't hear traffic with the windows closed.  Would stay at this hotel again if lucky enough to head to Dallas again!</t>
   </si>
   <si>
+    <t>gvanni</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r52489427-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -2523,6 +2814,9 @@
   </si>
   <si>
     <t>December 2009</t>
+  </si>
+  <si>
+    <t>chopepper</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d1390006-r31883726-Fairfield_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
@@ -3064,43 +3358,47 @@
       <c r="A2" t="n">
         <v>59667</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>136858</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -3112,56 +3410,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>59667</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>136859</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -3177,56 +3479,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>59667</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>136860</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3238,56 +3544,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>59667</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>9036</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -3305,56 +3615,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="X5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Y5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>59667</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>136861</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -3372,56 +3686,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="X6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="Y6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>59667</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>98901</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="J7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="L7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3433,56 +3751,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="X7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="Y7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>59667</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>136862</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -3498,56 +3820,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="X8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Y8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>59667</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>136863</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="K9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="O9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3563,56 +3889,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="X9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="Y9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>59667</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>136864</v>
+      </c>
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="J10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="K10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="L10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -3628,56 +3958,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="X10" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="Y10" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>59667</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>4311</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="J11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="K11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="O11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3689,56 +4023,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="X11" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="Y11" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>59667</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>136865</v>
+      </c>
+      <c r="C12" t="s">
+        <v>149</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="J12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="K12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="O12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3756,56 +4094,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="X12" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="Y12" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>59667</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>40460</v>
+      </c>
+      <c r="C13" t="s">
+        <v>158</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="J13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="K13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3821,56 +4163,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="X13" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="Y13" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>59667</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>19846</v>
+      </c>
+      <c r="C14" t="s">
+        <v>166</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="J14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="K14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="O14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3882,56 +4228,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="X14" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="Y14" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>59667</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>4053</v>
+      </c>
+      <c r="C15" t="s">
+        <v>175</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="J15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="K15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="O15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3943,56 +4293,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="X15" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="Y15" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>59667</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>136866</v>
+      </c>
+      <c r="C16" t="s">
+        <v>185</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="J16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="K16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="L16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="O16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -4006,50 +4360,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>59667</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>115312</v>
+      </c>
+      <c r="C17" t="s">
+        <v>192</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="J17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="K17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="L17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="O17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -4063,50 +4421,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>59667</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>136867</v>
+      </c>
+      <c r="C18" t="s">
+        <v>198</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="J18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="K18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="L18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
@@ -4122,56 +4484,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="X18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="Y18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>59667</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>33989</v>
+      </c>
+      <c r="C19" t="s">
+        <v>208</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="J19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="K19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="L19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="O19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -4191,50 +4557,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>59667</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>136868</v>
+      </c>
+      <c r="C20" t="s">
+        <v>214</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="J20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="K20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="L20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="O20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -4246,56 +4616,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="X20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="Y20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>59667</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>136869</v>
+      </c>
+      <c r="C21" t="s">
+        <v>223</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="J21" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="K21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="L21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="O21" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -4313,56 +4687,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="X21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="Y21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>59667</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>75874</v>
+      </c>
+      <c r="C22" t="s">
+        <v>233</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="J22" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="K22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="L22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="O22" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4380,56 +4758,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="X22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="Y22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>59667</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>136870</v>
+      </c>
+      <c r="C23" t="s">
+        <v>241</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="J23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="K23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="L23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="O23" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -4447,56 +4829,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="X23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="Y23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>59667</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>136871</v>
+      </c>
+      <c r="C24" t="s">
+        <v>250</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
+        <v>252</v>
+      </c>
+      <c r="J24" t="s">
+        <v>253</v>
+      </c>
+      <c r="K24" t="s">
+        <v>254</v>
+      </c>
+      <c r="L24" t="s">
+        <v>255</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
         <v>229</v>
       </c>
-      <c r="J24" t="s">
-        <v>230</v>
-      </c>
-      <c r="K24" t="s">
-        <v>231</v>
-      </c>
-      <c r="L24" t="s">
-        <v>232</v>
-      </c>
-      <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s">
-        <v>209</v>
-      </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4514,56 +4900,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="X24" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="Y24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>59667</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>136872</v>
+      </c>
+      <c r="C25" t="s">
+        <v>257</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="J25" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="K25" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="L25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4575,56 +4965,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="X25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="Y25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>59667</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>136873</v>
+      </c>
+      <c r="C26" t="s">
+        <v>266</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="J26" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="K26" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="L26" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4636,56 +5030,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="X26" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="Y26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>59667</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>136874</v>
+      </c>
+      <c r="C27" t="s">
+        <v>272</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="J27" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="K27" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="L27" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
@@ -4703,56 +5101,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="X27" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="Y27" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>59667</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>2377</v>
+      </c>
+      <c r="C28" t="s">
+        <v>282</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="J28" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="K28" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="L28" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -4770,56 +5172,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="X28" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="Y28" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>59667</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>35137</v>
+      </c>
+      <c r="C29" t="s">
+        <v>289</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="J29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="K29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="L29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="O29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4831,56 +5237,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="X29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="Y29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>59667</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>91619</v>
+      </c>
+      <c r="C30" t="s">
+        <v>299</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="J30" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="K30" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="L30" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="O30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4896,56 +5306,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="X30" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="Y30" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>59667</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>136875</v>
+      </c>
+      <c r="C31" t="s">
+        <v>307</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="J31" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="K31" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="L31" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="O31" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4957,56 +5371,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="X31" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="Y31" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>59667</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>136876</v>
+      </c>
+      <c r="C32" t="s">
+        <v>316</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="J32" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="K32" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="L32" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -5024,50 +5442,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>59667</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>136877</v>
+      </c>
+      <c r="C33" t="s">
+        <v>323</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="J33" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="K33" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="L33" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="O33" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -5083,56 +5505,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="X33" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Y33" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>59667</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>136878</v>
+      </c>
+      <c r="C34" t="s">
+        <v>333</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="J34" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="K34" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="L34" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="O34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -5150,56 +5576,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="X34" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="Y34" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>59667</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>136872</v>
+      </c>
+      <c r="C35" t="s">
+        <v>266</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="J35" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="K35" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="L35" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -5211,38 +5641,42 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="X35" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="Y35" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>59667</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>136879</v>
+      </c>
+      <c r="C36" t="s">
+        <v>349</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="J36" t="s"/>
       <c r="K36" t="s"/>
@@ -5259,51 +5693,52 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
-      <c r="Y36" t="s"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>59667</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>136880</v>
+      </c>
+      <c r="C37" t="s">
+        <v>352</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="J37" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="K37" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="L37" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -5315,56 +5750,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="X37" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="Y37" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>59667</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>97981</v>
+      </c>
+      <c r="C38" t="s">
+        <v>362</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="J38" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="K38" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="L38" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -5382,56 +5821,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="X38" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="Y38" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>59667</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>136881</v>
+      </c>
+      <c r="C39" t="s">
+        <v>371</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="J39" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="K39" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="L39" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5443,56 +5886,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="X39" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="Y39" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>59667</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>136882</v>
+      </c>
+      <c r="C40" t="s">
+        <v>381</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="J40" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="K40" t="s">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="L40" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="O40" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5504,56 +5951,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="X40" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="Y40" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>59667</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>136883</v>
+      </c>
+      <c r="C41" t="s">
+        <v>391</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="J41" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="K41" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="L41" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="O41" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5569,56 +6020,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="X41" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="Y41" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>59667</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>136884</v>
+      </c>
+      <c r="C42" t="s">
+        <v>401</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>362</v>
+        <v>402</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>363</v>
+        <v>403</v>
       </c>
       <c r="J42" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="K42" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="L42" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="O42" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="n">
@@ -5634,56 +6089,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="X42" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="Y42" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>59667</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>40684</v>
+      </c>
+      <c r="C43" t="s">
+        <v>411</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>371</v>
+        <v>412</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
       <c r="J43" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
       <c r="K43" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
       <c r="L43" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="O43" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5695,56 +6154,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="X43" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="Y43" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>59667</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>1968</v>
+      </c>
+      <c r="C44" t="s">
+        <v>418</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="J44" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="K44" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="L44" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>3</v>
@@ -5762,56 +6225,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="X44" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="Y44" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>59667</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>136885</v>
+      </c>
+      <c r="C45" t="s">
+        <v>428</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>386</v>
+        <v>429</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>387</v>
+        <v>430</v>
       </c>
       <c r="J45" t="s">
-        <v>388</v>
+        <v>431</v>
       </c>
       <c r="K45" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="L45" t="s">
-        <v>390</v>
+        <v>433</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="n">
@@ -5829,47 +6296,51 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>392</v>
+        <v>435</v>
       </c>
       <c r="X45" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="Y45" t="s">
-        <v>394</v>
+        <v>437</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>59667</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>37741</v>
+      </c>
+      <c r="C46" t="s">
+        <v>438</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="J46" t="s">
-        <v>397</v>
+        <v>441</v>
       </c>
       <c r="K46" t="s">
-        <v>398</v>
+        <v>442</v>
       </c>
       <c r="L46" t="s">
-        <v>399</v>
+        <v>443</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
@@ -5896,56 +6367,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="X46" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="Y46" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>59667</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>136886</v>
+      </c>
+      <c r="C47" t="s">
+        <v>447</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>403</v>
+        <v>448</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>404</v>
+        <v>449</v>
       </c>
       <c r="J47" t="s">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="K47" t="s">
-        <v>406</v>
+        <v>451</v>
       </c>
       <c r="L47" t="s">
-        <v>407</v>
+        <v>452</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>408</v>
+        <v>453</v>
       </c>
       <c r="O47" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="n">
@@ -5963,50 +6438,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>409</v>
+        <v>454</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>59667</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>136887</v>
+      </c>
+      <c r="C48" t="s">
+        <v>455</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>410</v>
+        <v>456</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>411</v>
+        <v>457</v>
       </c>
       <c r="J48" t="s">
-        <v>412</v>
+        <v>458</v>
       </c>
       <c r="K48" t="s">
-        <v>413</v>
+        <v>459</v>
       </c>
       <c r="L48" t="s">
-        <v>414</v>
+        <v>460</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>408</v>
+        <v>453</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -6026,50 +6505,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>414</v>
+        <v>460</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>59667</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>136888</v>
+      </c>
+      <c r="C49" t="s">
+        <v>461</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>415</v>
+        <v>462</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>416</v>
+        <v>463</v>
       </c>
       <c r="J49" t="s">
-        <v>417</v>
+        <v>464</v>
       </c>
       <c r="K49" t="s">
-        <v>418</v>
+        <v>465</v>
       </c>
       <c r="L49" t="s">
-        <v>419</v>
+        <v>466</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>420</v>
+        <v>467</v>
       </c>
       <c r="O49" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="P49" t="n">
         <v>3</v>
@@ -6085,56 +6568,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>421</v>
+        <v>468</v>
       </c>
       <c r="X49" t="s">
-        <v>422</v>
+        <v>469</v>
       </c>
       <c r="Y49" t="s">
-        <v>423</v>
+        <v>470</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>59667</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>12608</v>
+      </c>
+      <c r="C50" t="s">
+        <v>471</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>424</v>
+        <v>472</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>425</v>
+        <v>473</v>
       </c>
       <c r="J50" t="s">
-        <v>426</v>
+        <v>474</v>
       </c>
       <c r="K50" t="s">
-        <v>427</v>
+        <v>475</v>
       </c>
       <c r="L50" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>420</v>
+        <v>467</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -6156,56 +6643,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
       <c r="X50" t="s">
-        <v>430</v>
+        <v>478</v>
       </c>
       <c r="Y50" t="s">
-        <v>431</v>
+        <v>479</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>59667</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>136889</v>
+      </c>
+      <c r="C51" t="s">
+        <v>480</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>432</v>
+        <v>481</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>433</v>
+        <v>482</v>
       </c>
       <c r="J51" t="s">
-        <v>434</v>
+        <v>483</v>
       </c>
       <c r="K51" t="s">
-        <v>435</v>
+        <v>484</v>
       </c>
       <c r="L51" t="s">
-        <v>436</v>
+        <v>485</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="O51" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -6217,56 +6708,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="X51" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="Y51" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>59667</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>71361</v>
+      </c>
+      <c r="C52" t="s">
+        <v>490</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>441</v>
+        <v>491</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>442</v>
+        <v>492</v>
       </c>
       <c r="J52" t="s">
-        <v>443</v>
+        <v>493</v>
       </c>
       <c r="K52" t="s">
-        <v>444</v>
+        <v>494</v>
       </c>
       <c r="L52" t="s">
-        <v>445</v>
+        <v>495</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>446</v>
+        <v>496</v>
       </c>
       <c r="O52" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -6282,56 +6777,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>447</v>
+        <v>497</v>
       </c>
       <c r="X52" t="s">
-        <v>448</v>
+        <v>498</v>
       </c>
       <c r="Y52" t="s">
-        <v>449</v>
+        <v>499</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>59667</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>136890</v>
+      </c>
+      <c r="C53" t="s">
+        <v>500</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>450</v>
+        <v>501</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
       <c r="J53" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
       <c r="K53" t="s">
-        <v>453</v>
+        <v>504</v>
       </c>
       <c r="L53" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="M53" t="n">
         <v>2</v>
       </c>
       <c r="N53" t="s">
-        <v>455</v>
+        <v>506</v>
       </c>
       <c r="O53" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -6347,47 +6846,51 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>456</v>
+        <v>507</v>
       </c>
       <c r="X53" t="s">
-        <v>457</v>
+        <v>508</v>
       </c>
       <c r="Y53" t="s">
-        <v>458</v>
+        <v>509</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>59667</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>136891</v>
+      </c>
+      <c r="C54" t="s">
+        <v>510</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>459</v>
+        <v>511</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>460</v>
+        <v>512</v>
       </c>
       <c r="J54" t="s">
-        <v>461</v>
+        <v>513</v>
       </c>
       <c r="K54" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="L54" t="s">
-        <v>463</v>
+        <v>515</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
@@ -6404,56 +6907,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>464</v>
+        <v>516</v>
       </c>
       <c r="X54" t="s">
-        <v>465</v>
+        <v>517</v>
       </c>
       <c r="Y54" t="s">
-        <v>466</v>
+        <v>518</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>59667</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>136892</v>
+      </c>
+      <c r="C55" t="s">
+        <v>519</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>467</v>
+        <v>520</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>468</v>
+        <v>521</v>
       </c>
       <c r="J55" t="s">
-        <v>469</v>
+        <v>522</v>
       </c>
       <c r="K55" t="s">
-        <v>470</v>
+        <v>523</v>
       </c>
       <c r="L55" t="s">
-        <v>471</v>
+        <v>524</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>472</v>
+        <v>525</v>
       </c>
       <c r="O55" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P55" t="n">
         <v>3</v>
@@ -6475,56 +6982,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>473</v>
+        <v>526</v>
       </c>
       <c r="X55" t="s">
-        <v>474</v>
+        <v>527</v>
       </c>
       <c r="Y55" t="s">
-        <v>475</v>
+        <v>528</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>59667</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>27158</v>
+      </c>
+      <c r="C56" t="s">
+        <v>529</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>476</v>
+        <v>530</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>477</v>
+        <v>531</v>
       </c>
       <c r="J56" t="s">
-        <v>478</v>
+        <v>532</v>
       </c>
       <c r="K56" t="s">
-        <v>479</v>
+        <v>533</v>
       </c>
       <c r="L56" t="s">
-        <v>480</v>
+        <v>534</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>481</v>
+        <v>535</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -6546,56 +7057,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>482</v>
+        <v>536</v>
       </c>
       <c r="X56" t="s">
-        <v>483</v>
+        <v>537</v>
       </c>
       <c r="Y56" t="s">
-        <v>484</v>
+        <v>538</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>59667</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>136893</v>
+      </c>
+      <c r="C57" t="s">
+        <v>539</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>485</v>
+        <v>540</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>486</v>
+        <v>541</v>
       </c>
       <c r="J57" t="s">
-        <v>487</v>
+        <v>542</v>
       </c>
       <c r="K57" t="s">
-        <v>488</v>
+        <v>543</v>
       </c>
       <c r="L57" t="s">
-        <v>489</v>
+        <v>544</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>481</v>
+        <v>535</v>
       </c>
       <c r="O57" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="P57" t="n">
         <v>3</v>
@@ -6617,56 +7132,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>490</v>
+        <v>545</v>
       </c>
       <c r="X57" t="s">
-        <v>491</v>
+        <v>546</v>
       </c>
       <c r="Y57" t="s">
-        <v>492</v>
+        <v>547</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>59667</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>3277</v>
+      </c>
+      <c r="C58" t="s">
+        <v>548</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>493</v>
+        <v>549</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>494</v>
+        <v>550</v>
       </c>
       <c r="J58" t="s">
-        <v>495</v>
+        <v>551</v>
       </c>
       <c r="K58" t="s">
-        <v>496</v>
+        <v>552</v>
       </c>
       <c r="L58" t="s">
-        <v>497</v>
+        <v>553</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -6688,56 +7207,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="X58" t="s">
-        <v>499</v>
+        <v>555</v>
       </c>
       <c r="Y58" t="s">
-        <v>500</v>
+        <v>556</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>59667</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>1786</v>
+      </c>
+      <c r="C59" t="s">
+        <v>557</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>501</v>
+        <v>558</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="J59" t="s">
-        <v>503</v>
+        <v>560</v>
       </c>
       <c r="K59" t="s">
-        <v>504</v>
+        <v>561</v>
       </c>
       <c r="L59" t="s">
-        <v>505</v>
+        <v>562</v>
       </c>
       <c r="M59" t="n">
         <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>506</v>
+        <v>563</v>
       </c>
       <c r="O59" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6759,56 +7282,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>507</v>
+        <v>564</v>
       </c>
       <c r="X59" t="s">
-        <v>508</v>
+        <v>565</v>
       </c>
       <c r="Y59" t="s">
-        <v>509</v>
+        <v>566</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>59667</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>136894</v>
+      </c>
+      <c r="C60" t="s">
+        <v>567</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>510</v>
+        <v>568</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>511</v>
+        <v>569</v>
       </c>
       <c r="J60" t="s">
-        <v>512</v>
+        <v>570</v>
       </c>
       <c r="K60" t="s">
-        <v>513</v>
+        <v>571</v>
       </c>
       <c r="L60" t="s">
-        <v>514</v>
+        <v>572</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>506</v>
+        <v>563</v>
       </c>
       <c r="O60" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -6830,47 +7357,51 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>515</v>
+        <v>573</v>
       </c>
       <c r="X60" t="s">
-        <v>516</v>
+        <v>574</v>
       </c>
       <c r="Y60" t="s">
-        <v>517</v>
+        <v>575</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>59667</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>136895</v>
+      </c>
+      <c r="C61" t="s">
+        <v>576</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>518</v>
+        <v>577</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>519</v>
+        <v>578</v>
       </c>
       <c r="J61" t="s">
-        <v>520</v>
+        <v>579</v>
       </c>
       <c r="K61" t="s">
-        <v>521</v>
+        <v>580</v>
       </c>
       <c r="L61" t="s">
-        <v>522</v>
+        <v>581</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
@@ -6887,56 +7418,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>523</v>
+        <v>582</v>
       </c>
       <c r="X61" t="s">
-        <v>524</v>
+        <v>583</v>
       </c>
       <c r="Y61" t="s">
-        <v>525</v>
+        <v>584</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>59667</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>136896</v>
+      </c>
+      <c r="C62" t="s">
+        <v>585</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>526</v>
+        <v>586</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>527</v>
+        <v>587</v>
       </c>
       <c r="J62" t="s">
-        <v>528</v>
+        <v>588</v>
       </c>
       <c r="K62" t="s">
-        <v>529</v>
+        <v>589</v>
       </c>
       <c r="L62" t="s">
-        <v>530</v>
+        <v>590</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>531</v>
+        <v>591</v>
       </c>
       <c r="O62" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6958,56 +7493,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>532</v>
+        <v>592</v>
       </c>
       <c r="X62" t="s">
-        <v>533</v>
+        <v>593</v>
       </c>
       <c r="Y62" t="s">
-        <v>534</v>
+        <v>594</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>59667</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>62623</v>
+      </c>
+      <c r="C63" t="s">
+        <v>595</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>535</v>
+        <v>596</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>536</v>
+        <v>597</v>
       </c>
       <c r="J63" t="s">
-        <v>537</v>
+        <v>598</v>
       </c>
       <c r="K63" t="s">
-        <v>538</v>
+        <v>599</v>
       </c>
       <c r="L63" t="s">
-        <v>539</v>
+        <v>600</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>540</v>
+        <v>601</v>
       </c>
       <c r="O63" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -7029,56 +7568,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>541</v>
+        <v>602</v>
       </c>
       <c r="X63" t="s">
-        <v>542</v>
+        <v>603</v>
       </c>
       <c r="Y63" t="s">
-        <v>543</v>
+        <v>604</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>59667</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>71778</v>
+      </c>
+      <c r="C64" t="s">
+        <v>605</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>544</v>
+        <v>606</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>545</v>
+        <v>607</v>
       </c>
       <c r="J64" t="s">
-        <v>546</v>
+        <v>608</v>
       </c>
       <c r="K64" t="s">
-        <v>547</v>
+        <v>609</v>
       </c>
       <c r="L64" t="s">
-        <v>548</v>
+        <v>610</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>549</v>
+        <v>611</v>
       </c>
       <c r="O64" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -7100,47 +7643,51 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>550</v>
+        <v>612</v>
       </c>
       <c r="X64" t="s">
-        <v>551</v>
+        <v>613</v>
       </c>
       <c r="Y64" t="s">
-        <v>552</v>
+        <v>614</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>59667</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>136897</v>
+      </c>
+      <c r="C65" t="s">
+        <v>615</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>553</v>
+        <v>616</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>554</v>
+        <v>617</v>
       </c>
       <c r="J65" t="s">
-        <v>555</v>
+        <v>618</v>
       </c>
       <c r="K65" t="s">
-        <v>556</v>
+        <v>619</v>
       </c>
       <c r="L65" t="s">
-        <v>557</v>
+        <v>620</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
@@ -7167,56 +7714,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>558</v>
+        <v>621</v>
       </c>
       <c r="X65" t="s">
-        <v>559</v>
+        <v>622</v>
       </c>
       <c r="Y65" t="s">
-        <v>560</v>
+        <v>623</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>59667</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>41806</v>
+      </c>
+      <c r="C66" t="s">
+        <v>624</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>561</v>
+        <v>625</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>562</v>
+        <v>626</v>
       </c>
       <c r="J66" t="s">
-        <v>563</v>
+        <v>627</v>
       </c>
       <c r="K66" t="s">
-        <v>564</v>
+        <v>628</v>
       </c>
       <c r="L66" t="s">
-        <v>565</v>
+        <v>629</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>566</v>
+        <v>630</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
@@ -7228,56 +7779,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>558</v>
+        <v>621</v>
       </c>
       <c r="X66" t="s">
-        <v>559</v>
+        <v>622</v>
       </c>
       <c r="Y66" t="s">
-        <v>567</v>
+        <v>631</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>59667</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>136898</v>
+      </c>
+      <c r="C67" t="s">
+        <v>632</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>568</v>
+        <v>633</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>569</v>
+        <v>634</v>
       </c>
       <c r="J67" t="s">
-        <v>570</v>
+        <v>635</v>
       </c>
       <c r="K67" t="s">
-        <v>571</v>
+        <v>636</v>
       </c>
       <c r="L67" t="s">
-        <v>572</v>
+        <v>637</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>573</v>
+        <v>638</v>
       </c>
       <c r="O67" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -7299,56 +7854,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>574</v>
+        <v>639</v>
       </c>
       <c r="X67" t="s">
-        <v>575</v>
+        <v>640</v>
       </c>
       <c r="Y67" t="s">
-        <v>576</v>
+        <v>641</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>59667</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>136899</v>
+      </c>
+      <c r="C68" t="s">
+        <v>642</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>577</v>
+        <v>643</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>578</v>
+        <v>644</v>
       </c>
       <c r="J68" t="s">
-        <v>579</v>
+        <v>645</v>
       </c>
       <c r="K68" t="s">
-        <v>580</v>
+        <v>646</v>
       </c>
       <c r="L68" t="s">
-        <v>581</v>
+        <v>647</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>582</v>
+        <v>648</v>
       </c>
       <c r="O68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -7370,56 +7929,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>583</v>
+        <v>649</v>
       </c>
       <c r="X68" t="s">
-        <v>584</v>
+        <v>650</v>
       </c>
       <c r="Y68" t="s">
-        <v>585</v>
+        <v>651</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>59667</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>136900</v>
+      </c>
+      <c r="C69" t="s">
+        <v>652</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>586</v>
+        <v>653</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>587</v>
+        <v>654</v>
       </c>
       <c r="J69" t="s">
-        <v>588</v>
+        <v>655</v>
       </c>
       <c r="K69" t="s">
-        <v>589</v>
+        <v>656</v>
       </c>
       <c r="L69" t="s">
-        <v>590</v>
+        <v>657</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>591</v>
+        <v>658</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -7441,56 +8004,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>592</v>
+        <v>659</v>
       </c>
       <c r="X69" t="s">
-        <v>593</v>
+        <v>660</v>
       </c>
       <c r="Y69" t="s">
-        <v>594</v>
+        <v>661</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>59667</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>136901</v>
+      </c>
+      <c r="C70" t="s">
+        <v>662</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>595</v>
+        <v>663</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>596</v>
+        <v>664</v>
       </c>
       <c r="J70" t="s">
-        <v>597</v>
+        <v>665</v>
       </c>
       <c r="K70" t="s">
-        <v>598</v>
+        <v>666</v>
       </c>
       <c r="L70" t="s">
-        <v>599</v>
+        <v>667</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>600</v>
+        <v>668</v>
       </c>
       <c r="O70" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="P70" t="n">
         <v>4</v>
@@ -7512,47 +8079,51 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>601</v>
+        <v>669</v>
       </c>
       <c r="X70" t="s">
-        <v>602</v>
+        <v>670</v>
       </c>
       <c r="Y70" t="s">
-        <v>603</v>
+        <v>671</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>59667</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>136902</v>
+      </c>
+      <c r="C71" t="s">
+        <v>672</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>604</v>
+        <v>673</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>605</v>
+        <v>674</v>
       </c>
       <c r="J71" t="s">
-        <v>606</v>
+        <v>675</v>
       </c>
       <c r="K71" t="s">
-        <v>607</v>
+        <v>676</v>
       </c>
       <c r="L71" t="s">
-        <v>608</v>
+        <v>677</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
@@ -7579,56 +8150,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>609</v>
+        <v>678</v>
       </c>
       <c r="X71" t="s">
-        <v>610</v>
+        <v>679</v>
       </c>
       <c r="Y71" t="s">
-        <v>611</v>
+        <v>680</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>59667</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>136903</v>
+      </c>
+      <c r="C72" t="s">
+        <v>681</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>612</v>
+        <v>682</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>613</v>
+        <v>683</v>
       </c>
       <c r="J72" t="s">
-        <v>614</v>
+        <v>684</v>
       </c>
       <c r="K72" t="s">
-        <v>615</v>
+        <v>685</v>
       </c>
       <c r="L72" t="s">
-        <v>616</v>
+        <v>686</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>617</v>
+        <v>687</v>
       </c>
       <c r="O72" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="s"/>
@@ -7640,56 +8215,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>618</v>
+        <v>688</v>
       </c>
       <c r="X72" t="s">
-        <v>619</v>
+        <v>689</v>
       </c>
       <c r="Y72" t="s">
-        <v>620</v>
+        <v>690</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>59667</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>136904</v>
+      </c>
+      <c r="C73" t="s">
+        <v>691</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>621</v>
+        <v>692</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>622</v>
+        <v>693</v>
       </c>
       <c r="J73" t="s">
-        <v>623</v>
+        <v>694</v>
       </c>
       <c r="K73" t="s">
-        <v>624</v>
+        <v>695</v>
       </c>
       <c r="L73" t="s">
-        <v>625</v>
+        <v>696</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>626</v>
+        <v>697</v>
       </c>
       <c r="O73" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7711,56 +8290,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>627</v>
+        <v>698</v>
       </c>
       <c r="X73" t="s">
-        <v>628</v>
+        <v>699</v>
       </c>
       <c r="Y73" t="s">
-        <v>629</v>
+        <v>700</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>59667</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>136905</v>
+      </c>
+      <c r="C74" t="s">
+        <v>701</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>630</v>
+        <v>702</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>631</v>
+        <v>703</v>
       </c>
       <c r="J74" t="s">
-        <v>632</v>
+        <v>704</v>
       </c>
       <c r="K74" t="s">
-        <v>633</v>
+        <v>705</v>
       </c>
       <c r="L74" t="s">
-        <v>634</v>
+        <v>706</v>
       </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
       <c r="N74" t="s">
-        <v>617</v>
+        <v>687</v>
       </c>
       <c r="O74" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="P74" t="n">
         <v>1</v>
@@ -7782,56 +8365,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>635</v>
+        <v>707</v>
       </c>
       <c r="X74" t="s">
-        <v>636</v>
+        <v>708</v>
       </c>
       <c r="Y74" t="s">
-        <v>637</v>
+        <v>709</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>59667</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>136906</v>
+      </c>
+      <c r="C75" t="s">
+        <v>710</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>638</v>
+        <v>711</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>639</v>
+        <v>712</v>
       </c>
       <c r="J75" t="s">
-        <v>640</v>
+        <v>713</v>
       </c>
       <c r="K75" t="s">
-        <v>641</v>
+        <v>714</v>
       </c>
       <c r="L75" t="s">
-        <v>642</v>
+        <v>715</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>643</v>
+        <v>716</v>
       </c>
       <c r="O75" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7853,56 +8440,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>644</v>
+        <v>717</v>
       </c>
       <c r="X75" t="s">
-        <v>645</v>
+        <v>718</v>
       </c>
       <c r="Y75" t="s">
-        <v>646</v>
+        <v>719</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>59667</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>136907</v>
+      </c>
+      <c r="C76" t="s">
+        <v>720</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>647</v>
+        <v>721</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>648</v>
+        <v>722</v>
       </c>
       <c r="J76" t="s">
-        <v>649</v>
+        <v>723</v>
       </c>
       <c r="K76" t="s">
-        <v>650</v>
+        <v>724</v>
       </c>
       <c r="L76" t="s">
-        <v>651</v>
+        <v>725</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>643</v>
+        <v>716</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7924,56 +8515,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>652</v>
+        <v>726</v>
       </c>
       <c r="X76" t="s">
-        <v>653</v>
+        <v>727</v>
       </c>
       <c r="Y76" t="s">
-        <v>654</v>
+        <v>728</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>59667</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>136908</v>
+      </c>
+      <c r="C77" t="s">
+        <v>729</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>655</v>
+        <v>730</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>656</v>
+        <v>731</v>
       </c>
       <c r="J77" t="s">
-        <v>657</v>
+        <v>732</v>
       </c>
       <c r="K77" t="s">
-        <v>556</v>
+        <v>619</v>
       </c>
       <c r="L77" t="s">
-        <v>658</v>
+        <v>733</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>659</v>
+        <v>734</v>
       </c>
       <c r="O77" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7995,56 +8590,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>660</v>
+        <v>735</v>
       </c>
       <c r="X77" t="s">
-        <v>661</v>
+        <v>736</v>
       </c>
       <c r="Y77" t="s">
-        <v>662</v>
+        <v>737</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>59667</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>136909</v>
+      </c>
+      <c r="C78" t="s">
+        <v>738</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>663</v>
+        <v>739</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>664</v>
+        <v>740</v>
       </c>
       <c r="J78" t="s">
-        <v>665</v>
+        <v>741</v>
       </c>
       <c r="K78" t="s">
-        <v>666</v>
+        <v>742</v>
       </c>
       <c r="L78" t="s">
-        <v>667</v>
+        <v>743</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>659</v>
+        <v>734</v>
       </c>
       <c r="O78" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -8066,56 +8665,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>660</v>
+        <v>735</v>
       </c>
       <c r="X78" t="s">
-        <v>661</v>
+        <v>736</v>
       </c>
       <c r="Y78" t="s">
-        <v>668</v>
+        <v>744</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>59667</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>136910</v>
+      </c>
+      <c r="C79" t="s">
+        <v>745</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>669</v>
+        <v>746</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>670</v>
+        <v>747</v>
       </c>
       <c r="J79" t="s">
-        <v>671</v>
+        <v>748</v>
       </c>
       <c r="K79" t="s">
-        <v>672</v>
+        <v>749</v>
       </c>
       <c r="L79" t="s">
-        <v>673</v>
+        <v>750</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>674</v>
+        <v>751</v>
       </c>
       <c r="O79" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -8137,56 +8740,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>675</v>
+        <v>752</v>
       </c>
       <c r="X79" t="s">
-        <v>676</v>
+        <v>753</v>
       </c>
       <c r="Y79" t="s">
-        <v>677</v>
+        <v>754</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>59667</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>136911</v>
+      </c>
+      <c r="C80" t="s">
+        <v>755</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>678</v>
+        <v>756</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>679</v>
+        <v>757</v>
       </c>
       <c r="J80" t="s">
-        <v>680</v>
+        <v>758</v>
       </c>
       <c r="K80" t="s">
-        <v>681</v>
+        <v>759</v>
       </c>
       <c r="L80" t="s">
-        <v>682</v>
+        <v>760</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>683</v>
+        <v>761</v>
       </c>
       <c r="O80" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -8208,56 +8815,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>684</v>
+        <v>762</v>
       </c>
       <c r="X80" t="s">
-        <v>685</v>
+        <v>763</v>
       </c>
       <c r="Y80" t="s">
-        <v>686</v>
+        <v>764</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>59667</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>136912</v>
+      </c>
+      <c r="C81" t="s">
+        <v>765</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>687</v>
+        <v>766</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>688</v>
+        <v>767</v>
       </c>
       <c r="J81" t="s">
-        <v>689</v>
+        <v>768</v>
       </c>
       <c r="K81" t="s">
-        <v>690</v>
+        <v>769</v>
       </c>
       <c r="L81" t="s">
-        <v>691</v>
+        <v>770</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>692</v>
+        <v>771</v>
       </c>
       <c r="O81" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -8281,50 +8892,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>691</v>
+        <v>770</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>59667</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>136913</v>
+      </c>
+      <c r="C82" t="s">
+        <v>772</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>693</v>
+        <v>773</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>694</v>
+        <v>774</v>
       </c>
       <c r="J82" t="s">
-        <v>695</v>
+        <v>775</v>
       </c>
       <c r="K82" t="s">
-        <v>696</v>
+        <v>776</v>
       </c>
       <c r="L82" t="s">
-        <v>697</v>
+        <v>777</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>692</v>
+        <v>771</v>
       </c>
       <c r="O82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -8346,56 +8961,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>698</v>
+        <v>778</v>
       </c>
       <c r="X82" t="s">
-        <v>699</v>
+        <v>779</v>
       </c>
       <c r="Y82" t="s">
-        <v>700</v>
+        <v>780</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>59667</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>136914</v>
+      </c>
+      <c r="C83" t="s">
+        <v>781</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>701</v>
+        <v>782</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>702</v>
+        <v>783</v>
       </c>
       <c r="J83" t="s">
-        <v>703</v>
+        <v>784</v>
       </c>
       <c r="K83" t="s">
-        <v>704</v>
+        <v>785</v>
       </c>
       <c r="L83" t="s">
-        <v>705</v>
+        <v>786</v>
       </c>
       <c r="M83" t="n">
         <v>3</v>
       </c>
       <c r="N83" t="s">
-        <v>692</v>
+        <v>771</v>
       </c>
       <c r="O83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P83" t="n">
         <v>3</v>
@@ -8417,56 +9036,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>698</v>
+        <v>778</v>
       </c>
       <c r="X83" t="s">
-        <v>699</v>
+        <v>779</v>
       </c>
       <c r="Y83" t="s">
-        <v>706</v>
+        <v>787</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>59667</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>10066</v>
+      </c>
+      <c r="C84" t="s">
+        <v>788</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>707</v>
+        <v>789</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>708</v>
+        <v>790</v>
       </c>
       <c r="J84" t="s">
-        <v>709</v>
+        <v>791</v>
       </c>
       <c r="K84" t="s">
-        <v>710</v>
+        <v>792</v>
       </c>
       <c r="L84" t="s">
-        <v>711</v>
+        <v>793</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>712</v>
+        <v>794</v>
       </c>
       <c r="O84" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="P84" t="n">
         <v>4</v>
@@ -8488,56 +9111,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>713</v>
+        <v>795</v>
       </c>
       <c r="X84" t="s">
-        <v>714</v>
+        <v>796</v>
       </c>
       <c r="Y84" t="s">
-        <v>715</v>
+        <v>797</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>59667</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>136915</v>
+      </c>
+      <c r="C85" t="s">
+        <v>798</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>716</v>
+        <v>799</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>717</v>
+        <v>800</v>
       </c>
       <c r="J85" t="s">
-        <v>718</v>
+        <v>801</v>
       </c>
       <c r="K85" t="s">
-        <v>719</v>
+        <v>802</v>
       </c>
       <c r="L85" t="s">
-        <v>720</v>
+        <v>803</v>
       </c>
       <c r="M85" t="n">
         <v>3</v>
       </c>
       <c r="N85" t="s">
-        <v>721</v>
+        <v>804</v>
       </c>
       <c r="O85" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="P85" t="s"/>
       <c r="Q85" t="n">
@@ -8557,56 +9184,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>713</v>
+        <v>795</v>
       </c>
       <c r="X85" t="s">
-        <v>714</v>
+        <v>796</v>
       </c>
       <c r="Y85" t="s">
-        <v>722</v>
+        <v>805</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>59667</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>136916</v>
+      </c>
+      <c r="C86" t="s">
+        <v>806</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>723</v>
+        <v>807</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>724</v>
+        <v>808</v>
       </c>
       <c r="J86" t="s">
-        <v>725</v>
+        <v>809</v>
       </c>
       <c r="K86" t="s">
-        <v>726</v>
+        <v>810</v>
       </c>
       <c r="L86" t="s">
-        <v>727</v>
+        <v>811</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>721</v>
+        <v>804</v>
       </c>
       <c r="O86" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8628,56 +9259,60 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>728</v>
+        <v>812</v>
       </c>
       <c r="X86" t="s">
-        <v>729</v>
+        <v>813</v>
       </c>
       <c r="Y86" t="s">
-        <v>730</v>
+        <v>814</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>59667</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>136917</v>
+      </c>
+      <c r="C87" t="s">
+        <v>815</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>731</v>
+        <v>816</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>732</v>
+        <v>817</v>
       </c>
       <c r="J87" t="s">
-        <v>733</v>
+        <v>818</v>
       </c>
       <c r="K87" t="s">
-        <v>734</v>
+        <v>819</v>
       </c>
       <c r="L87" t="s">
-        <v>735</v>
+        <v>820</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>736</v>
+        <v>821</v>
       </c>
       <c r="O87" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8699,56 +9334,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>737</v>
+        <v>822</v>
       </c>
       <c r="X87" t="s">
-        <v>738</v>
+        <v>823</v>
       </c>
       <c r="Y87" t="s">
-        <v>739</v>
+        <v>824</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>59667</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>136918</v>
+      </c>
+      <c r="C88" t="s">
+        <v>825</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>740</v>
+        <v>826</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>741</v>
+        <v>827</v>
       </c>
       <c r="J88" t="s">
-        <v>742</v>
+        <v>828</v>
       </c>
       <c r="K88" t="s">
-        <v>743</v>
+        <v>829</v>
       </c>
       <c r="L88" t="s">
-        <v>744</v>
+        <v>830</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>745</v>
+        <v>831</v>
       </c>
       <c r="O88" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8770,47 +9409,51 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>746</v>
+        <v>832</v>
       </c>
       <c r="X88" t="s">
-        <v>747</v>
+        <v>833</v>
       </c>
       <c r="Y88" t="s">
-        <v>748</v>
+        <v>834</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>59667</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>136919</v>
+      </c>
+      <c r="C89" t="s">
+        <v>835</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>749</v>
+        <v>836</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>750</v>
+        <v>837</v>
       </c>
       <c r="J89" t="s">
-        <v>751</v>
+        <v>838</v>
       </c>
       <c r="K89" t="s">
-        <v>752</v>
+        <v>839</v>
       </c>
       <c r="L89" t="s">
-        <v>753</v>
+        <v>840</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
@@ -8839,41 +9482,45 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>753</v>
+        <v>840</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>59667</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>136920</v>
+      </c>
+      <c r="C90" t="s">
+        <v>841</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>754</v>
+        <v>842</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>755</v>
+        <v>843</v>
       </c>
       <c r="J90" t="s">
-        <v>756</v>
+        <v>844</v>
       </c>
       <c r="K90" t="s">
-        <v>757</v>
+        <v>845</v>
       </c>
       <c r="L90" t="s">
-        <v>758</v>
+        <v>846</v>
       </c>
       <c r="M90" t="n">
         <v>5</v>
@@ -8902,50 +9549,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>758</v>
+        <v>846</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>59667</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>136921</v>
+      </c>
+      <c r="C91" t="s">
+        <v>847</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>759</v>
+        <v>848</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>760</v>
+        <v>849</v>
       </c>
       <c r="J91" t="s">
-        <v>761</v>
+        <v>850</v>
       </c>
       <c r="K91" t="s">
-        <v>762</v>
+        <v>851</v>
       </c>
       <c r="L91" t="s">
-        <v>763</v>
+        <v>852</v>
       </c>
       <c r="M91" t="n">
         <v>4</v>
       </c>
       <c r="N91" t="s">
-        <v>764</v>
+        <v>853</v>
       </c>
       <c r="O91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -8969,50 +9620,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>765</v>
+        <v>854</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>59667</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>136922</v>
+      </c>
+      <c r="C92" t="s">
+        <v>855</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>766</v>
+        <v>856</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>767</v>
+        <v>857</v>
       </c>
       <c r="J92" t="s">
-        <v>768</v>
+        <v>858</v>
       </c>
       <c r="K92" t="s">
-        <v>769</v>
+        <v>859</v>
       </c>
       <c r="L92" t="s">
-        <v>770</v>
+        <v>860</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>771</v>
+        <v>861</v>
       </c>
       <c r="O92" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -9032,50 +9687,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>770</v>
+        <v>860</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>59667</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>136923</v>
+      </c>
+      <c r="C93" t="s">
+        <v>862</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>772</v>
+        <v>863</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>773</v>
+        <v>864</v>
       </c>
       <c r="J93" t="s">
-        <v>774</v>
+        <v>865</v>
       </c>
       <c r="K93" t="s">
-        <v>775</v>
+        <v>866</v>
       </c>
       <c r="L93" t="s">
-        <v>776</v>
+        <v>867</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>777</v>
+        <v>868</v>
       </c>
       <c r="O93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -9095,50 +9754,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>776</v>
+        <v>867</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>59667</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>136924</v>
+      </c>
+      <c r="C94" t="s">
+        <v>869</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>778</v>
+        <v>870</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>779</v>
+        <v>871</v>
       </c>
       <c r="J94" t="s">
-        <v>780</v>
+        <v>872</v>
       </c>
       <c r="K94" t="s">
-        <v>781</v>
+        <v>873</v>
       </c>
       <c r="L94" t="s">
-        <v>782</v>
+        <v>874</v>
       </c>
       <c r="M94" t="n">
         <v>4</v>
       </c>
       <c r="N94" t="s">
-        <v>783</v>
+        <v>875</v>
       </c>
       <c r="O94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P94" t="n">
         <v>3</v>
@@ -9160,56 +9823,60 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>784</v>
+        <v>876</v>
       </c>
       <c r="X94" t="s">
-        <v>785</v>
+        <v>877</v>
       </c>
       <c r="Y94" t="s">
-        <v>786</v>
+        <v>878</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>59667</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>136925</v>
+      </c>
+      <c r="C95" t="s">
+        <v>879</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>787</v>
+        <v>880</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>788</v>
+        <v>881</v>
       </c>
       <c r="J95" t="s">
-        <v>789</v>
+        <v>882</v>
       </c>
       <c r="K95" t="s">
-        <v>790</v>
+        <v>883</v>
       </c>
       <c r="L95" t="s">
-        <v>791</v>
+        <v>884</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>792</v>
+        <v>885</v>
       </c>
       <c r="O95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -9233,50 +9900,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>791</v>
+        <v>884</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>59667</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>136926</v>
+      </c>
+      <c r="C96" t="s">
+        <v>886</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>793</v>
+        <v>887</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>794</v>
+        <v>888</v>
       </c>
       <c r="J96" t="s">
-        <v>795</v>
+        <v>889</v>
       </c>
       <c r="K96" t="s">
-        <v>796</v>
+        <v>890</v>
       </c>
       <c r="L96" t="s">
-        <v>797</v>
+        <v>891</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>798</v>
+        <v>892</v>
       </c>
       <c r="O96" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -9300,50 +9971,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>797</v>
+        <v>891</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>59667</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>136927</v>
+      </c>
+      <c r="C97" t="s">
+        <v>893</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>799</v>
+        <v>894</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>800</v>
+        <v>895</v>
       </c>
       <c r="J97" t="s">
-        <v>801</v>
+        <v>896</v>
       </c>
       <c r="K97" t="s">
-        <v>802</v>
+        <v>897</v>
       </c>
       <c r="L97" t="s">
-        <v>803</v>
+        <v>898</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>804</v>
+        <v>899</v>
       </c>
       <c r="O97" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -9367,50 +10042,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>805</v>
+        <v>900</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>59667</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>136928</v>
+      </c>
+      <c r="C98" t="s">
+        <v>901</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>806</v>
+        <v>902</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>807</v>
+        <v>903</v>
       </c>
       <c r="J98" t="s">
-        <v>808</v>
+        <v>904</v>
       </c>
       <c r="K98" t="s">
-        <v>809</v>
+        <v>905</v>
       </c>
       <c r="L98" t="s">
-        <v>810</v>
+        <v>906</v>
       </c>
       <c r="M98" t="n">
         <v>4</v>
       </c>
       <c r="N98" t="s">
-        <v>804</v>
+        <v>899</v>
       </c>
       <c r="O98" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -9434,50 +10113,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>810</v>
+        <v>906</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>59667</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>136929</v>
+      </c>
+      <c r="C99" t="s">
+        <v>907</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>811</v>
+        <v>908</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>812</v>
+        <v>909</v>
       </c>
       <c r="J99" t="s">
-        <v>813</v>
+        <v>910</v>
       </c>
       <c r="K99" t="s">
-        <v>814</v>
+        <v>911</v>
       </c>
       <c r="L99" t="s">
-        <v>815</v>
+        <v>912</v>
       </c>
       <c r="M99" t="n">
         <v>4</v>
       </c>
       <c r="N99" t="s">
-        <v>816</v>
+        <v>913</v>
       </c>
       <c r="O99" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P99" t="s"/>
       <c r="Q99" t="s"/>
@@ -9491,50 +10174,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>815</v>
+        <v>912</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>59667</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>136930</v>
+      </c>
+      <c r="C100" t="s">
+        <v>914</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>817</v>
+        <v>915</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>818</v>
+        <v>916</v>
       </c>
       <c r="J100" t="s">
-        <v>819</v>
+        <v>917</v>
       </c>
       <c r="K100" t="s">
-        <v>820</v>
+        <v>918</v>
       </c>
       <c r="L100" t="s">
-        <v>821</v>
+        <v>919</v>
       </c>
       <c r="M100" t="n">
         <v>3</v>
       </c>
       <c r="N100" t="s">
-        <v>822</v>
+        <v>920</v>
       </c>
       <c r="O100" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P100" t="n">
         <v>3</v>
@@ -9556,13 +10243,13 @@
         <v>0</v>
       </c>
       <c r="W100" t="s">
-        <v>823</v>
+        <v>921</v>
       </c>
       <c r="X100" t="s">
-        <v>824</v>
+        <v>922</v>
       </c>
       <c r="Y100" t="s">
-        <v>825</v>
+        <v>923</v>
       </c>
     </row>
   </sheetData>
